--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500" tabRatio="500" firstSheet="2"/>
+    <workbookView windowWidth="20490" windowHeight="6780" tabRatio="500" firstSheet="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -88,7 +88,7 @@
     <t>TXN_DATE</t>
   </si>
   <si>
-    <t>EUR</t>
+    <t>USD</t>
   </si>
   <si>
     <t>OWN</t>
@@ -103,7 +103,7 @@
     <t>CBS</t>
   </si>
   <si>
-    <t>om</t>
+    <t>qatar</t>
   </si>
   <si>
     <t>Other services</t>
@@ -5727,7 +5727,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -6137,24 +6137,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:R710"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D384" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85833333333333" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.95" customWidth="1"/>
-    <col min="2" max="2" width="11.4666666666667" customWidth="1"/>
-    <col min="3" max="3" width="42.8583333333333" customWidth="1"/>
+    <col min="2" max="2" width="11.35" customWidth="1"/>
+    <col min="3" max="3" width="31.4166666666667" customWidth="1"/>
     <col min="4" max="4" width="25.1416666666667" customWidth="1"/>
     <col min="5" max="5" width="14.425" customWidth="1"/>
     <col min="6" max="6" width="22.8583333333333" customWidth="1"/>
@@ -6173,13 +6173,13 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:18">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -6282,8 +6282,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R2" t="str">
-        <f ca="1" t="shared" ref="R2:R7" si="0">TEXT(RANDBETWEEN(DATE(2024,1,1),DATE(2025,5,1)),"yyyy-mm-dd")</f>
-        <v>2024-10-24</v>
+        <f ca="1">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-05-21</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -6336,8 +6336,8 @@
         <v>33</v>
       </c>
       <c r="R3" t="str">
-        <f ca="1" t="shared" si="0"/>
-        <v>2024-06-05</v>
+        <f ca="1" t="shared" ref="R3:R12" si="0">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2024-09-08</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -6395,7 +6395,7 @@
       </c>
       <c r="R4" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>2024-05-22</v>
+        <v>2025-09-07</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -6449,7 +6449,7 @@
       </c>
       <c r="R5" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>2025-03-14</v>
+        <v>2025-02-19</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -6507,7 +6507,7 @@
       </c>
       <c r="R6" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>2024-05-26</v>
+        <v>2024-11-29</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="R7" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>2024-05-16</v>
+        <v>2024-08-04</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -6615,8 +6615,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R8" t="str">
-        <f ca="1">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2025-04-04</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>2025-04-08</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -6670,8 +6670,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R9" t="str">
-        <f ca="1" t="shared" ref="R9:R18" si="1">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-10-18</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>2025-03-22</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -6728,8 +6728,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R10" t="str">
-        <f ca="1" t="shared" si="1"/>
-        <v>2024-09-15</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>2025-05-28</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -6786,8 +6786,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R11" t="str">
-        <f ca="1" t="shared" si="1"/>
-        <v>2024-04-20</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>2025-05-27</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -6840,8 +6840,8 @@
         <v>33</v>
       </c>
       <c r="R12" t="str">
-        <f ca="1" t="shared" si="1"/>
-        <v>2023-10-29</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>2024-11-27</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -6898,8 +6898,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R13" t="str">
-        <f ca="1" t="shared" si="1"/>
-        <v>2024-06-12</v>
+        <f ca="1" t="shared" ref="R13:R22" si="1">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-09-30</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="R14" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>2024-03-20</v>
+        <v>2024-10-18</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -7015,7 +7015,7 @@
       </c>
       <c r="R15" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>2024-07-10</v>
+        <v>2025-09-19</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -7073,7 +7073,7 @@
       </c>
       <c r="R16" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>2025-03-25</v>
+        <v>2024-11-01</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -7127,7 +7127,7 @@
       </c>
       <c r="R17" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>2023-08-07</v>
+        <v>2025-04-19</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -7181,7 +7181,7 @@
       </c>
       <c r="R18" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>2024-07-08</v>
+        <v>2024-09-18</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -7238,8 +7238,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R19" t="str">
-        <f ca="1" t="shared" ref="R19:R28" si="2">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2023-08-10</v>
+        <f ca="1" t="shared" si="1"/>
+        <v>2024-08-19</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -7296,8 +7296,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R20" t="str">
-        <f ca="1" t="shared" si="2"/>
-        <v>2025-05-23</v>
+        <f ca="1" t="shared" si="1"/>
+        <v>2025-09-24</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -7354,8 +7354,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R21" t="str">
-        <f ca="1" t="shared" si="2"/>
-        <v>2024-02-11</v>
+        <f ca="1" t="shared" si="1"/>
+        <v>2025-06-03</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -7412,8 +7412,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R22" t="str">
-        <f ca="1" t="shared" si="2"/>
-        <v>2024-05-16</v>
+        <f ca="1" t="shared" si="1"/>
+        <v>2025-04-29</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -7470,8 +7470,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R23" t="str">
-        <f ca="1" t="shared" si="2"/>
-        <v>2023-12-08</v>
+        <f ca="1" t="shared" ref="R23:R32" si="2">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-02-08</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -7525,7 +7525,7 @@
       </c>
       <c r="R24" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>2024-10-10</v>
+        <v>2024-11-07</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -7583,7 +7583,7 @@
       </c>
       <c r="R25" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>2025-04-04</v>
+        <v>2025-06-02</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -7637,7 +7637,7 @@
       </c>
       <c r="R26" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>2025-03-28</v>
+        <v>2025-08-11</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -7695,7 +7695,7 @@
       </c>
       <c r="R27" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>2024-10-22</v>
+        <v>2025-07-10</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="R28" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>2024-08-20</v>
+        <v>2024-10-09</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -7810,8 +7810,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R29" t="str">
-        <f ca="1" t="shared" ref="R29:R38" si="3">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-03-02</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>2024-10-23</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -7868,8 +7868,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R30" t="str">
-        <f ca="1" t="shared" si="3"/>
-        <v>2023-10-20</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>2025-09-06</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -7926,8 +7926,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R31" t="str">
-        <f ca="1" t="shared" si="3"/>
-        <v>2024-04-03</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>2025-09-02</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -7980,8 +7980,8 @@
         <v>33</v>
       </c>
       <c r="R32" t="str">
-        <f ca="1" t="shared" si="3"/>
-        <v>2025-05-14</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>2025-03-28</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -8034,8 +8034,8 @@
         <v>33</v>
       </c>
       <c r="R33" t="str">
-        <f ca="1" t="shared" si="3"/>
-        <v>2024-06-25</v>
+        <f ca="1" t="shared" ref="R33:R42" si="3">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2024-09-23</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -8093,7 +8093,7 @@
       </c>
       <c r="R34" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>2023-09-12</v>
+        <v>2025-01-25</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -8151,7 +8151,7 @@
       </c>
       <c r="R35" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>2023-11-22</v>
+        <v>2025-04-26</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -8208,7 +8208,7 @@
       </c>
       <c r="R36" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>2023-10-14</v>
+        <v>2025-09-15</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -8265,7 +8265,7 @@
       </c>
       <c r="R37" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>2024-08-26</v>
+        <v>2024-11-25</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -8323,7 +8323,7 @@
       </c>
       <c r="R38" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>2024-04-04</v>
+        <v>2024-08-26</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -8379,8 +8379,8 @@
         <v>138</v>
       </c>
       <c r="R39" t="str">
-        <f ca="1" t="shared" ref="R39:R48" si="4">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2023-12-11</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>2025-03-14</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -8433,8 +8433,8 @@
         <v>33</v>
       </c>
       <c r="R40" t="str">
-        <f ca="1" t="shared" si="4"/>
-        <v>2024-11-12</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>2025-08-28</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -8487,8 +8487,8 @@
         <v>33</v>
       </c>
       <c r="R41" t="str">
-        <f ca="1" t="shared" si="4"/>
-        <v>2024-05-03</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>2025-09-16</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -8544,8 +8544,8 @@
         <v>138</v>
       </c>
       <c r="R42" t="str">
-        <f ca="1" t="shared" si="4"/>
-        <v>2024-07-06</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>2025-01-15</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -8602,8 +8602,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R43" t="str">
-        <f ca="1" t="shared" si="4"/>
-        <v>2025-04-29</v>
+        <f ca="1" t="shared" ref="R43:R52" si="4">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-06-20</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="R44" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>2024-03-31</v>
+        <v>2025-06-30</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -8719,7 +8719,7 @@
       </c>
       <c r="R45" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>2024-09-13</v>
+        <v>2025-07-19</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -8777,7 +8777,7 @@
       </c>
       <c r="R46" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>2023-12-24</v>
+        <v>2025-05-14</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -8835,7 +8835,7 @@
       </c>
       <c r="R47" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>2023-12-04</v>
+        <v>2024-12-24</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -8893,7 +8893,7 @@
       </c>
       <c r="R48" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>2024-10-26</v>
+        <v>2025-06-18</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -8950,8 +8950,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R49" t="str">
-        <f ca="1" t="shared" ref="R49:R58" si="5">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-03-08</v>
+        <f ca="1" t="shared" si="4"/>
+        <v>2024-09-06</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -9007,8 +9007,8 @@
         <v>138</v>
       </c>
       <c r="R50" t="str">
-        <f ca="1" t="shared" si="5"/>
-        <v>2025-05-07</v>
+        <f ca="1" t="shared" si="4"/>
+        <v>2025-05-30</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -9061,8 +9061,8 @@
         <v>33</v>
       </c>
       <c r="R51" t="str">
-        <f ca="1" t="shared" si="5"/>
-        <v>2023-09-17</v>
+        <f ca="1" t="shared" si="4"/>
+        <v>2025-08-02</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -9119,8 +9119,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R52" t="str">
-        <f ca="1" t="shared" si="5"/>
-        <v>2023-08-03</v>
+        <f ca="1" t="shared" si="4"/>
+        <v>2024-10-09</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -9173,8 +9173,8 @@
         <v>33</v>
       </c>
       <c r="R53" t="str">
-        <f ca="1" t="shared" si="5"/>
-        <v>2024-03-14</v>
+        <f ca="1" t="shared" ref="R53:R62" si="5">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-08-08</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="R54" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>2023-09-28</v>
+        <v>2025-07-14</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -9288,7 +9288,7 @@
       </c>
       <c r="R55" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>2023-10-02</v>
+        <v>2025-08-28</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -9345,7 +9345,7 @@
       </c>
       <c r="R56" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>2024-11-28</v>
+        <v>2025-01-15</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="R57" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>2024-03-13</v>
+        <v>2024-09-15</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -9456,7 +9456,7 @@
       </c>
       <c r="R58" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>2024-06-25</v>
+        <v>2025-04-23</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -9512,8 +9512,8 @@
         <v>138</v>
       </c>
       <c r="R59" t="str">
-        <f ca="1" t="shared" ref="R59:R68" si="6">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-08-11</v>
+        <f ca="1" t="shared" si="5"/>
+        <v>2024-08-30</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -9570,8 +9570,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R60" t="str">
-        <f ca="1" t="shared" si="6"/>
-        <v>2023-11-29</v>
+        <f ca="1" t="shared" si="5"/>
+        <v>2025-01-20</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -9628,8 +9628,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R61" t="str">
-        <f ca="1" t="shared" si="6"/>
-        <v>2025-01-11</v>
+        <f ca="1" t="shared" si="5"/>
+        <v>2025-03-09</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -9686,8 +9686,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R62" t="str">
-        <f ca="1" t="shared" si="6"/>
-        <v>2023-08-12</v>
+        <f ca="1" t="shared" si="5"/>
+        <v>2024-08-09</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -9744,8 +9744,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R63" t="str">
-        <f ca="1" t="shared" si="6"/>
-        <v>2025-03-02</v>
+        <f ca="1" t="shared" ref="R63:R72" si="6">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-03-15</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -9803,7 +9803,7 @@
       </c>
       <c r="R64" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>2024-09-27</v>
+        <v>2025-01-28</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -9861,7 +9861,7 @@
       </c>
       <c r="R65" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>2023-10-17</v>
+        <v>2024-08-01</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -9915,7 +9915,7 @@
       </c>
       <c r="R66" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>2024-06-14</v>
+        <v>2025-06-19</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="R67" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>2025-02-14</v>
+        <v>2025-07-02</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -10026,7 +10026,7 @@
       </c>
       <c r="R68" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>2024-10-02</v>
+        <v>2024-10-10</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -10083,8 +10083,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R69" t="str">
-        <f ca="1" t="shared" ref="R69:R78" si="7">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2023-09-28</v>
+        <f ca="1" t="shared" si="6"/>
+        <v>2025-09-29</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -10137,8 +10137,8 @@
         <v>33</v>
       </c>
       <c r="R70" t="str">
-        <f ca="1" t="shared" si="7"/>
-        <v>2024-03-26</v>
+        <f ca="1" t="shared" si="6"/>
+        <v>2025-03-03</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -10195,8 +10195,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R71" t="str">
-        <f ca="1" t="shared" si="7"/>
-        <v>2023-08-06</v>
+        <f ca="1" t="shared" si="6"/>
+        <v>2025-04-06</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -10249,8 +10249,8 @@
         <v>33</v>
       </c>
       <c r="R72" t="str">
-        <f ca="1" t="shared" si="7"/>
-        <v>2025-04-06</v>
+        <f ca="1" t="shared" si="6"/>
+        <v>2024-09-26</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -10307,8 +10307,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R73" t="str">
-        <f ca="1" t="shared" si="7"/>
-        <v>2024-12-28</v>
+        <f ca="1" t="shared" ref="R73:R82" si="7">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-02-15</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -10366,7 +10366,7 @@
       </c>
       <c r="R74" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>2024-01-18</v>
+        <v>2024-10-09</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -10424,7 +10424,7 @@
       </c>
       <c r="R75" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>2025-04-08</v>
+        <v>2025-07-01</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -10478,7 +10478,7 @@
       </c>
       <c r="R76" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>2024-06-27</v>
+        <v>2025-05-11</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -10532,7 +10532,7 @@
       </c>
       <c r="R77" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>2024-04-02</v>
+        <v>2024-09-03</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -10590,7 +10590,7 @@
       </c>
       <c r="R78" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>2024-03-04</v>
+        <v>2024-12-21</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -10647,8 +10647,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R79" t="str">
-        <f ca="1" t="shared" ref="R79:R88" si="8">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2023-11-21</v>
+        <f ca="1" t="shared" si="7"/>
+        <v>2025-06-09</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -10705,8 +10705,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R80" t="str">
-        <f ca="1" t="shared" si="8"/>
-        <v>2024-03-08</v>
+        <f ca="1" t="shared" si="7"/>
+        <v>2024-08-02</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -10759,8 +10759,8 @@
         <v>33</v>
       </c>
       <c r="R81" t="str">
-        <f ca="1" t="shared" si="8"/>
-        <v>2024-02-05</v>
+        <f ca="1" t="shared" si="7"/>
+        <v>2025-06-10</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -10817,8 +10817,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R82" t="str">
-        <f ca="1" t="shared" si="8"/>
-        <v>2024-10-25</v>
+        <f ca="1" t="shared" si="7"/>
+        <v>2025-01-27</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -10871,8 +10871,8 @@
         <v>33</v>
       </c>
       <c r="R83" t="str">
-        <f ca="1" t="shared" si="8"/>
-        <v>2024-02-05</v>
+        <f ca="1" t="shared" ref="R83:R92" si="8">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-08-05</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -10926,7 +10926,7 @@
       </c>
       <c r="R84" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>2025-05-14</v>
+        <v>2024-11-27</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="R85" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>2023-12-08</v>
+        <v>2024-12-10</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -11041,7 +11041,7 @@
       </c>
       <c r="R86" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>2024-03-28</v>
+        <v>2024-11-21</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -11099,7 +11099,7 @@
       </c>
       <c r="R87" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>2024-02-20</v>
+        <v>2025-02-03</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="R88" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>2025-05-21</v>
+        <v>2025-06-02</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -11210,8 +11210,8 @@
         <v>33</v>
       </c>
       <c r="R89" t="str">
-        <f ca="1" t="shared" ref="R89:R98" si="9">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-11-12</v>
+        <f ca="1" t="shared" si="8"/>
+        <v>2025-08-12</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -11268,8 +11268,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R90" t="str">
-        <f ca="1" t="shared" si="9"/>
-        <v>2024-02-10</v>
+        <f ca="1" t="shared" si="8"/>
+        <v>2024-10-07</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -11326,8 +11326,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R91" t="str">
-        <f ca="1" t="shared" si="9"/>
-        <v>2024-10-30</v>
+        <f ca="1" t="shared" si="8"/>
+        <v>2025-08-29</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -11384,8 +11384,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R92" t="str">
-        <f ca="1" t="shared" si="9"/>
-        <v>2024-06-03</v>
+        <f ca="1" t="shared" si="8"/>
+        <v>2025-01-14</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -11439,8 +11439,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R93" t="str">
-        <f ca="1" t="shared" si="9"/>
-        <v>2024-08-27</v>
+        <f ca="1" t="shared" ref="R93:R102" si="9">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-05-14</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -11498,7 +11498,7 @@
       </c>
       <c r="R94" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>2025-05-15</v>
+        <v>2025-04-05</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="R95" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>2024-08-15</v>
+        <v>2025-06-23</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -11614,7 +11614,7 @@
       </c>
       <c r="R96" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>2025-01-06</v>
+        <v>2025-01-25</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -11671,7 +11671,7 @@
       </c>
       <c r="R97" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>2023-09-01</v>
+        <v>2024-12-14</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="R98" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>2025-04-22</v>
+        <v>2025-06-27</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -11783,8 +11783,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R99" t="str">
-        <f ca="1" t="shared" ref="R99:R108" si="10">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2023-12-28</v>
+        <f ca="1" t="shared" si="9"/>
+        <v>2025-04-23</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -11837,8 +11837,8 @@
         <v>33</v>
       </c>
       <c r="R100" t="str">
-        <f ca="1" t="shared" si="10"/>
-        <v>2023-08-28</v>
+        <f ca="1" t="shared" si="9"/>
+        <v>2024-09-20</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -11895,8 +11895,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R101" t="str">
-        <f ca="1" t="shared" si="10"/>
-        <v>2024-08-12</v>
+        <f ca="1" t="shared" si="9"/>
+        <v>2025-06-02</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -11949,8 +11949,8 @@
         <v>33</v>
       </c>
       <c r="R102" t="str">
-        <f ca="1" t="shared" si="10"/>
-        <v>2025-03-26</v>
+        <f ca="1" t="shared" si="9"/>
+        <v>2025-09-29</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -12003,8 +12003,8 @@
         <v>33</v>
       </c>
       <c r="R103" t="str">
-        <f ca="1" t="shared" si="10"/>
-        <v>2023-09-10</v>
+        <f ca="1" t="shared" ref="R103:R112" si="10">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-06-13</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -12062,7 +12062,7 @@
       </c>
       <c r="R104" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>2025-05-04</v>
+        <v>2025-09-01</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -12119,7 +12119,7 @@
       </c>
       <c r="R105" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>2025-01-21</v>
+        <v>2025-08-08</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -12176,7 +12176,7 @@
       </c>
       <c r="R106" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>2025-01-03</v>
+        <v>2025-04-01</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -12230,7 +12230,7 @@
       </c>
       <c r="R107" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>2023-09-12</v>
+        <v>2025-10-03</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -12287,7 +12287,7 @@
       </c>
       <c r="R108" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>2024-07-03</v>
+        <v>2025-04-15</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -12344,8 +12344,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R109" t="str">
-        <f ca="1" t="shared" ref="R109:R118" si="11">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-10-03</v>
+        <f ca="1" t="shared" si="10"/>
+        <v>2025-05-22</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -12398,8 +12398,8 @@
         <v>33</v>
       </c>
       <c r="R110" t="str">
-        <f ca="1" t="shared" si="11"/>
-        <v>2023-09-24</v>
+        <f ca="1" t="shared" si="10"/>
+        <v>2025-07-05</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -12456,8 +12456,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R111" t="str">
-        <f ca="1" t="shared" si="11"/>
-        <v>2023-12-06</v>
+        <f ca="1" t="shared" si="10"/>
+        <v>2025-09-24</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -12514,8 +12514,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R112" t="str">
-        <f ca="1" t="shared" si="11"/>
-        <v>2025-03-29</v>
+        <f ca="1" t="shared" si="10"/>
+        <v>2025-01-02</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -12568,8 +12568,8 @@
         <v>33</v>
       </c>
       <c r="R113" t="str">
-        <f ca="1" t="shared" si="11"/>
-        <v>2024-09-17</v>
+        <f ca="1" t="shared" ref="R113:R122" si="11">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-05-10</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -12623,7 +12623,7 @@
       </c>
       <c r="R114" t="str">
         <f ca="1" t="shared" si="11"/>
-        <v>2023-09-19</v>
+        <v>2024-08-30</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -12677,7 +12677,7 @@
       </c>
       <c r="R115" t="str">
         <f ca="1" t="shared" si="11"/>
-        <v>2025-04-26</v>
+        <v>2024-11-09</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -12731,7 +12731,7 @@
       </c>
       <c r="R116" t="str">
         <f ca="1" t="shared" si="11"/>
-        <v>2024-01-04</v>
+        <v>2025-03-13</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -12789,7 +12789,7 @@
       </c>
       <c r="R117" t="str">
         <f ca="1" t="shared" si="11"/>
-        <v>2024-02-13</v>
+        <v>2025-01-23</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -12847,7 +12847,7 @@
       </c>
       <c r="R118" t="str">
         <f ca="1" t="shared" si="11"/>
-        <v>2024-11-05</v>
+        <v>2025-04-24</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -12904,8 +12904,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R119" t="str">
-        <f ca="1" t="shared" ref="R119:R128" si="12">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-12-19</v>
+        <f ca="1" t="shared" si="11"/>
+        <v>2025-09-06</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -12958,8 +12958,8 @@
         <v>33</v>
       </c>
       <c r="R120" t="str">
-        <f ca="1" t="shared" si="12"/>
-        <v>2025-02-15</v>
+        <f ca="1" t="shared" si="11"/>
+        <v>2025-03-15</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -13012,8 +13012,8 @@
         <v>33</v>
       </c>
       <c r="R121" t="str">
-        <f ca="1" t="shared" si="12"/>
-        <v>2023-11-10</v>
+        <f ca="1" t="shared" si="11"/>
+        <v>2025-06-28</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -13066,8 +13066,8 @@
         <v>33</v>
       </c>
       <c r="R122" t="str">
-        <f ca="1" t="shared" si="12"/>
-        <v>2023-11-02</v>
+        <f ca="1" t="shared" si="11"/>
+        <v>2024-11-07</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -13124,8 +13124,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R123" t="str">
-        <f ca="1" t="shared" si="12"/>
-        <v>2024-05-27</v>
+        <f ca="1" t="shared" ref="R123:R132" si="12">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-05-02</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -13179,7 +13179,7 @@
       </c>
       <c r="R124" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v>2023-12-07</v>
+        <v>2024-11-05</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -13233,7 +13233,7 @@
       </c>
       <c r="R125" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v>2024-03-04</v>
+        <v>2025-01-18</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -13287,7 +13287,7 @@
       </c>
       <c r="R126" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v>2024-10-14</v>
+        <v>2025-04-21</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -13341,7 +13341,7 @@
       </c>
       <c r="R127" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v>2024-08-26</v>
+        <v>2025-09-09</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -13396,7 +13396,7 @@
       </c>
       <c r="R128" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v>2024-09-10</v>
+        <v>2024-09-14</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -13449,8 +13449,8 @@
         <v>33</v>
       </c>
       <c r="R129" t="str">
-        <f ca="1" t="shared" ref="R129:R138" si="13">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2023-11-13</v>
+        <f ca="1" t="shared" si="12"/>
+        <v>2024-09-15</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -13506,8 +13506,8 @@
         <v>138</v>
       </c>
       <c r="R130" t="str">
-        <f ca="1" t="shared" si="13"/>
-        <v>2024-11-26</v>
+        <f ca="1" t="shared" si="12"/>
+        <v>2024-11-30</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -13564,8 +13564,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R131" t="str">
-        <f ca="1" t="shared" si="13"/>
-        <v>2024-12-19</v>
+        <f ca="1" t="shared" si="12"/>
+        <v>2025-04-24</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -13618,8 +13618,8 @@
         <v>33</v>
       </c>
       <c r="R132" t="str">
-        <f ca="1" t="shared" si="13"/>
-        <v>2025-01-31</v>
+        <f ca="1" t="shared" si="12"/>
+        <v>2025-04-23</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -13676,8 +13676,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R133" t="str">
-        <f ca="1" t="shared" si="13"/>
-        <v>2023-08-28</v>
+        <f ca="1" t="shared" ref="R133:R142" si="13">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-02-09</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="R134" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>2024-07-30</v>
+        <v>2025-03-05</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -13793,7 +13793,7 @@
       </c>
       <c r="R135" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>2024-03-09</v>
+        <v>2025-02-05</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -13847,7 +13847,7 @@
       </c>
       <c r="R136" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>2025-05-01</v>
+        <v>2024-12-27</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -13904,7 +13904,7 @@
       </c>
       <c r="R137" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>2024-04-10</v>
+        <v>2024-09-23</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -13958,7 +13958,7 @@
       </c>
       <c r="R138" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>2024-02-07</v>
+        <v>2024-12-05</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -14015,8 +14015,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R139" t="str">
-        <f ca="1" t="shared" ref="R139:R148" si="14">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2023-12-18</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>2025-04-20</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -14073,8 +14073,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R140" t="str">
-        <f ca="1" t="shared" si="14"/>
-        <v>2025-05-22</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>2024-10-31</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -14131,8 +14131,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R141" t="str">
-        <f ca="1" t="shared" si="14"/>
-        <v>2023-08-31</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>2025-01-24</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -14189,8 +14189,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R142" t="str">
-        <f ca="1" t="shared" si="14"/>
-        <v>2024-09-25</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>2024-12-06</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -14247,8 +14247,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R143" t="str">
-        <f ca="1" t="shared" si="14"/>
-        <v>2024-09-26</v>
+        <f ca="1" t="shared" ref="R143:R152" si="14">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2024-08-04</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -14306,7 +14306,7 @@
       </c>
       <c r="R144" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>2025-04-06</v>
+        <v>2024-10-18</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -14360,7 +14360,7 @@
       </c>
       <c r="R145" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>2024-08-31</v>
+        <v>2024-12-01</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -14418,7 +14418,7 @@
       </c>
       <c r="R146" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>2025-05-03</v>
+        <v>2024-10-23</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -14472,7 +14472,7 @@
       </c>
       <c r="R147" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>2023-12-17</v>
+        <v>2025-04-10</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -14530,7 +14530,7 @@
       </c>
       <c r="R148" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>2024-12-05</v>
+        <v>2025-05-22</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -14587,8 +14587,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R149" t="str">
-        <f ca="1" t="shared" ref="R149:R158" si="15">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2023-11-28</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>2025-09-23</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -14645,8 +14645,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R150" t="str">
-        <f ca="1" t="shared" si="15"/>
-        <v>2023-10-03</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>2024-12-07</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -14703,8 +14703,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R151" t="str">
-        <f ca="1" t="shared" si="15"/>
-        <v>2023-09-25</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>2024-09-22</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -14761,8 +14761,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R152" t="str">
-        <f ca="1" t="shared" si="15"/>
-        <v>2024-11-16</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>2025-07-24</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -14819,8 +14819,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R153" t="str">
-        <f ca="1" t="shared" si="15"/>
-        <v>2024-09-13</v>
+        <f ca="1" t="shared" ref="R153:R162" si="15">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2024-12-28</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -14878,7 +14878,7 @@
       </c>
       <c r="R154" t="str">
         <f ca="1" t="shared" si="15"/>
-        <v>2023-10-04</v>
+        <v>2025-07-09</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -14936,7 +14936,7 @@
       </c>
       <c r="R155" t="str">
         <f ca="1" t="shared" si="15"/>
-        <v>2023-12-06</v>
+        <v>2025-10-02</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -14994,7 +14994,7 @@
       </c>
       <c r="R156" t="str">
         <f ca="1" t="shared" si="15"/>
-        <v>2024-08-02</v>
+        <v>2025-08-16</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -15052,7 +15052,7 @@
       </c>
       <c r="R157" t="str">
         <f ca="1" t="shared" si="15"/>
-        <v>2024-06-21</v>
+        <v>2025-07-29</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -15110,7 +15110,7 @@
       </c>
       <c r="R158" t="str">
         <f ca="1" t="shared" si="15"/>
-        <v>2023-08-22</v>
+        <v>2024-11-25</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -15167,8 +15167,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R159" t="str">
-        <f ca="1" t="shared" ref="R159:R168" si="16">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-03-11</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>2025-04-07</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -15225,8 +15225,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R160" t="str">
-        <f ca="1" t="shared" si="16"/>
-        <v>2025-01-28</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>2024-09-23</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -15283,8 +15283,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R161" t="str">
-        <f ca="1" t="shared" si="16"/>
-        <v>2024-11-21</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>2025-02-11</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -15341,8 +15341,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R162" t="str">
-        <f ca="1" t="shared" si="16"/>
-        <v>2023-11-24</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>2024-12-13</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -15399,8 +15399,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R163" t="str">
-        <f ca="1" t="shared" si="16"/>
-        <v>2024-06-13</v>
+        <f ca="1" t="shared" ref="R163:R172" si="16">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-06-15</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -15454,7 +15454,7 @@
       </c>
       <c r="R164" t="str">
         <f ca="1" t="shared" si="16"/>
-        <v>2023-12-10</v>
+        <v>2025-02-27</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -15512,7 +15512,7 @@
       </c>
       <c r="R165" t="str">
         <f ca="1" t="shared" si="16"/>
-        <v>2025-05-12</v>
+        <v>2024-08-03</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -15566,7 +15566,7 @@
       </c>
       <c r="R166" t="str">
         <f ca="1" t="shared" si="16"/>
-        <v>2023-12-07</v>
+        <v>2025-09-05</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -15624,7 +15624,7 @@
       </c>
       <c r="R167" t="str">
         <f ca="1" t="shared" si="16"/>
-        <v>2025-05-28</v>
+        <v>2025-03-30</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -15682,7 +15682,7 @@
       </c>
       <c r="R168" t="str">
         <f ca="1" t="shared" si="16"/>
-        <v>2024-07-17</v>
+        <v>2025-10-05</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -15739,8 +15739,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R169" t="str">
-        <f ca="1" t="shared" ref="R169:R178" si="17">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-12-03</v>
+        <f ca="1" t="shared" si="16"/>
+        <v>2025-01-01</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -15793,8 +15793,8 @@
         <v>33</v>
       </c>
       <c r="R170" t="str">
-        <f ca="1" t="shared" si="17"/>
-        <v>2025-05-26</v>
+        <f ca="1" t="shared" si="16"/>
+        <v>2025-05-27</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -15847,8 +15847,8 @@
         <v>33</v>
       </c>
       <c r="R171" t="str">
-        <f ca="1" t="shared" si="17"/>
-        <v>2023-08-12</v>
+        <f ca="1" t="shared" si="16"/>
+        <v>2025-01-20</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -15904,8 +15904,8 @@
         <v>138</v>
       </c>
       <c r="R172" t="str">
-        <f ca="1" t="shared" si="17"/>
-        <v>2025-01-23</v>
+        <f ca="1" t="shared" si="16"/>
+        <v>2025-03-17</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -15961,8 +15961,8 @@
         <v>138</v>
       </c>
       <c r="R173" t="str">
-        <f ca="1" t="shared" si="17"/>
-        <v>2024-03-25</v>
+        <f ca="1" t="shared" ref="R173:R182" si="17">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-01-13</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -16019,7 +16019,7 @@
       </c>
       <c r="R174" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>2024-12-14</v>
+        <v>2024-10-05</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -16076,7 +16076,7 @@
       </c>
       <c r="R175" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>2023-08-26</v>
+        <v>2025-05-16</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -16134,7 +16134,7 @@
       </c>
       <c r="R176" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>2024-09-21</v>
+        <v>2025-06-12</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -16192,7 +16192,7 @@
       </c>
       <c r="R177" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>2023-09-04</v>
+        <v>2025-08-20</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -16246,7 +16246,7 @@
       </c>
       <c r="R178" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>2025-04-22</v>
+        <v>2025-05-14</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -16303,8 +16303,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R179" t="str">
-        <f ca="1" t="shared" ref="R179:R188" si="18">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-06-17</v>
+        <f ca="1" t="shared" si="17"/>
+        <v>2024-10-22</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -16357,8 +16357,8 @@
         <v>33</v>
       </c>
       <c r="R180" t="str">
-        <f ca="1" t="shared" si="18"/>
-        <v>2024-12-24</v>
+        <f ca="1" t="shared" si="17"/>
+        <v>2024-11-15</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -16411,8 +16411,8 @@
         <v>33</v>
       </c>
       <c r="R181" t="str">
-        <f ca="1" t="shared" si="18"/>
-        <v>2024-11-08</v>
+        <f ca="1" t="shared" si="17"/>
+        <v>2024-10-10</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -16469,8 +16469,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R182" t="str">
-        <f ca="1" t="shared" si="18"/>
-        <v>2024-10-31</v>
+        <f ca="1" t="shared" si="17"/>
+        <v>2025-09-05</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -16527,8 +16527,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R183" t="str">
-        <f ca="1" t="shared" si="18"/>
-        <v>2025-05-26</v>
+        <f ca="1" t="shared" ref="R183:R192" si="18">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2024-10-23</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -16582,7 +16582,7 @@
       </c>
       <c r="R184" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>2025-02-26</v>
+        <v>2025-03-01</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -16640,7 +16640,7 @@
       </c>
       <c r="R185" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>2024-05-10</v>
+        <v>2024-09-16</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -16698,7 +16698,7 @@
       </c>
       <c r="R186" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>2025-06-18</v>
+        <v>2024-10-10</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -16753,7 +16753,7 @@
       </c>
       <c r="R187" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>2024-12-23</v>
+        <v>2025-02-23</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -16808,7 +16808,7 @@
       </c>
       <c r="R188" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>2023-09-13</v>
+        <v>2025-05-06</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -16865,8 +16865,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R189" t="str">
-        <f ca="1" t="shared" ref="R189:R198" si="19">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-08-14</v>
+        <f ca="1" t="shared" si="18"/>
+        <v>2025-09-26</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -16923,8 +16923,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R190" t="str">
-        <f ca="1" t="shared" si="19"/>
-        <v>2024-03-14</v>
+        <f ca="1" t="shared" si="18"/>
+        <v>2025-02-19</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -16981,8 +16981,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R191" t="str">
-        <f ca="1" t="shared" si="19"/>
-        <v>2025-01-10</v>
+        <f ca="1" t="shared" si="18"/>
+        <v>2025-02-04</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -17039,8 +17039,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R192" t="str">
-        <f ca="1" t="shared" si="19"/>
-        <v>2024-02-22</v>
+        <f ca="1" t="shared" si="18"/>
+        <v>2025-01-29</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -17097,8 +17097,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R193" t="str">
-        <f ca="1" t="shared" si="19"/>
-        <v>2024-02-02</v>
+        <f ca="1" t="shared" ref="R193:R202" si="19">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2024-10-03</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -17156,7 +17156,7 @@
       </c>
       <c r="R194" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>2024-10-24</v>
+        <v>2025-08-10</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -17214,7 +17214,7 @@
       </c>
       <c r="R195" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>2025-03-28</v>
+        <v>2025-05-14</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="R196" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>2023-08-30</v>
+        <v>2024-12-15</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -17330,7 +17330,7 @@
       </c>
       <c r="R197" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>2024-07-27</v>
+        <v>2024-10-11</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -17384,7 +17384,7 @@
       </c>
       <c r="R198" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>2024-09-24</v>
+        <v>2025-05-12</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -17441,8 +17441,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R199" t="str">
-        <f ca="1" t="shared" ref="R199:R208" si="20">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-05-05</v>
+        <f ca="1" t="shared" si="19"/>
+        <v>2024-11-13</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -17495,8 +17495,8 @@
         <v>33</v>
       </c>
       <c r="R200" t="str">
-        <f ca="1" t="shared" si="20"/>
-        <v>2024-11-04</v>
+        <f ca="1" t="shared" si="19"/>
+        <v>2025-06-12</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -17549,8 +17549,8 @@
         <v>33</v>
       </c>
       <c r="R201" t="str">
-        <f ca="1" t="shared" si="20"/>
-        <v>2024-05-05</v>
+        <f ca="1" t="shared" si="19"/>
+        <v>2025-02-04</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -17607,8 +17607,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R202" t="str">
-        <f ca="1" t="shared" si="20"/>
-        <v>2023-10-11</v>
+        <f ca="1" t="shared" si="19"/>
+        <v>2025-07-08</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -17665,8 +17665,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R203" t="str">
-        <f ca="1" t="shared" si="20"/>
-        <v>2024-12-13</v>
+        <f ca="1" t="shared" ref="R203:R212" si="20">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-10-06</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -17720,7 +17720,7 @@
       </c>
       <c r="R204" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>2024-12-08</v>
+        <v>2025-01-10</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -17778,7 +17778,7 @@
       </c>
       <c r="R205" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>2024-12-04</v>
+        <v>2024-11-01</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -17832,7 +17832,7 @@
       </c>
       <c r="R206" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>2023-10-03</v>
+        <v>2024-11-10</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -17890,7 +17890,7 @@
       </c>
       <c r="R207" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>2024-01-07</v>
+        <v>2025-10-03</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -17948,7 +17948,7 @@
       </c>
       <c r="R208" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>2024-12-31</v>
+        <v>2025-07-27</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -18005,8 +18005,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R209" t="str">
-        <f ca="1" t="shared" ref="R209:R218" si="21">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2023-08-31</v>
+        <f ca="1" t="shared" si="20"/>
+        <v>2024-08-05</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -18063,8 +18063,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R210" t="str">
-        <f ca="1" t="shared" si="21"/>
-        <v>2023-10-11</v>
+        <f ca="1" t="shared" si="20"/>
+        <v>2025-01-08</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -18117,8 +18117,8 @@
         <v>33</v>
       </c>
       <c r="R211" t="str">
-        <f ca="1" t="shared" si="21"/>
-        <v>2024-12-09</v>
+        <f ca="1" t="shared" si="20"/>
+        <v>2025-06-21</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -18175,8 +18175,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R212" t="str">
-        <f ca="1" t="shared" si="21"/>
-        <v>2023-11-18</v>
+        <f ca="1" t="shared" si="20"/>
+        <v>2025-04-08</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -18233,8 +18233,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R213" t="str">
-        <f ca="1" t="shared" si="21"/>
-        <v>2024-01-30</v>
+        <f ca="1" t="shared" ref="R213:R222" si="21">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2024-09-30</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -18292,7 +18292,7 @@
       </c>
       <c r="R214" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>2023-08-09</v>
+        <v>2025-07-01</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -18346,7 +18346,7 @@
       </c>
       <c r="R215" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>2024-06-16</v>
+        <v>2024-10-28</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -18404,7 +18404,7 @@
       </c>
       <c r="R216" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>2025-04-29</v>
+        <v>2025-09-20</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -18462,7 +18462,7 @@
       </c>
       <c r="R217" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>2024-05-07</v>
+        <v>2025-06-15</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -18520,7 +18520,7 @@
       </c>
       <c r="R218" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>2024-04-16</v>
+        <v>2025-02-14</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -18574,8 +18574,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R219" t="str">
-        <f ca="1" t="shared" ref="R219:R228" si="22">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2025-06-14</v>
+        <f ca="1" t="shared" si="21"/>
+        <v>2025-03-04</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -18628,8 +18628,8 @@
         <v>33</v>
       </c>
       <c r="R220" t="str">
-        <f ca="1" t="shared" si="22"/>
-        <v>2024-09-16</v>
+        <f ca="1" t="shared" si="21"/>
+        <v>2025-08-23</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -18686,8 +18686,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R221" t="str">
-        <f ca="1" t="shared" si="22"/>
-        <v>2025-03-08</v>
+        <f ca="1" t="shared" si="21"/>
+        <v>2025-08-18</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -18741,8 +18741,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R222" t="str">
-        <f ca="1" t="shared" si="22"/>
-        <v>2023-08-08</v>
+        <f ca="1" t="shared" si="21"/>
+        <v>2025-10-02</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -18799,8 +18799,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R223" t="str">
-        <f ca="1" t="shared" si="22"/>
-        <v>2023-09-18</v>
+        <f ca="1" t="shared" ref="R223:R232" si="22">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-03-12</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -18857,7 +18857,7 @@
       </c>
       <c r="R224" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>2024-07-13</v>
+        <v>2025-07-19</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -18915,7 +18915,7 @@
       </c>
       <c r="R225" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>2024-11-30</v>
+        <v>2025-07-15</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -18969,7 +18969,7 @@
       </c>
       <c r="R226" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>2024-02-10</v>
+        <v>2024-09-09</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -19027,7 +19027,7 @@
       </c>
       <c r="R227" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>2025-02-19</v>
+        <v>2024-11-09</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -19082,7 +19082,7 @@
       </c>
       <c r="R228" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>2024-03-30</v>
+        <v>2025-02-07</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -19139,8 +19139,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R229" t="str">
-        <f ca="1" t="shared" ref="R229:R238" si="23">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-09-11</v>
+        <f ca="1" t="shared" si="22"/>
+        <v>2024-08-30</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -19193,8 +19193,8 @@
         <v>33</v>
       </c>
       <c r="R230" t="str">
-        <f ca="1" t="shared" si="23"/>
-        <v>2025-05-05</v>
+        <f ca="1" t="shared" si="22"/>
+        <v>2025-09-30</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -19247,8 +19247,8 @@
         <v>33</v>
       </c>
       <c r="R231" t="str">
-        <f ca="1" t="shared" si="23"/>
-        <v>2024-05-10</v>
+        <f ca="1" t="shared" si="22"/>
+        <v>2024-11-18</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -19304,8 +19304,8 @@
         <v>33</v>
       </c>
       <c r="R232" t="str">
-        <f ca="1" t="shared" si="23"/>
-        <v>2024-04-18</v>
+        <f ca="1" t="shared" si="22"/>
+        <v>2024-10-12</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -19362,8 +19362,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R233" t="str">
-        <f ca="1" t="shared" si="23"/>
-        <v>2023-10-31</v>
+        <f ca="1" t="shared" ref="R233:R242" si="23">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-07-19</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -19417,7 +19417,7 @@
       </c>
       <c r="R234" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>2025-04-23</v>
+        <v>2024-09-06</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -19471,7 +19471,7 @@
       </c>
       <c r="R235" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>2024-12-09</v>
+        <v>2025-06-14</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -19529,7 +19529,7 @@
       </c>
       <c r="R236" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>2023-12-04</v>
+        <v>2025-03-18</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -19584,7 +19584,7 @@
       </c>
       <c r="R237" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>2025-01-24</v>
+        <v>2024-08-04</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -19642,7 +19642,7 @@
       </c>
       <c r="R238" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>2024-01-13</v>
+        <v>2024-09-04</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -19699,8 +19699,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R239" t="str">
-        <f ca="1" t="shared" ref="R239:R248" si="24">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-09-11</v>
+        <f ca="1" t="shared" si="23"/>
+        <v>2024-09-01</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -19757,8 +19757,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R240" t="str">
-        <f ca="1" t="shared" si="24"/>
-        <v>2024-05-10</v>
+        <f ca="1" t="shared" si="23"/>
+        <v>2025-06-03</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -19815,8 +19815,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R241" t="str">
-        <f ca="1" t="shared" si="24"/>
-        <v>2024-09-27</v>
+        <f ca="1" t="shared" si="23"/>
+        <v>2025-04-14</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -19869,8 +19869,8 @@
         <v>33</v>
       </c>
       <c r="R242" t="str">
-        <f ca="1" t="shared" si="24"/>
-        <v>2024-02-26</v>
+        <f ca="1" t="shared" si="23"/>
+        <v>2025-05-30</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -19927,8 +19927,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R243" t="str">
-        <f ca="1" t="shared" si="24"/>
-        <v>2024-11-14</v>
+        <f ca="1" t="shared" ref="R243:R252" si="24">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-01-28</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -19982,7 +19982,7 @@
       </c>
       <c r="R244" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>2024-06-01</v>
+        <v>2025-04-28</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -20036,7 +20036,7 @@
       </c>
       <c r="R245" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>2023-10-23</v>
+        <v>2025-07-19</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -20090,7 +20090,7 @@
       </c>
       <c r="R246" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>2025-02-04</v>
+        <v>2025-08-02</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -20147,7 +20147,7 @@
       </c>
       <c r="R247" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>2023-08-11</v>
+        <v>2025-02-22</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -20205,7 +20205,7 @@
       </c>
       <c r="R248" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>2023-08-25</v>
+        <v>2025-09-30</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -20258,8 +20258,8 @@
         <v>33</v>
       </c>
       <c r="R249" t="str">
-        <f ca="1" t="shared" ref="R249:R258" si="25">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2025-04-17</v>
+        <f ca="1" t="shared" si="24"/>
+        <v>2024-12-13</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -20316,8 +20316,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R250" t="str">
-        <f ca="1" t="shared" si="25"/>
-        <v>2023-09-08</v>
+        <f ca="1" t="shared" si="24"/>
+        <v>2025-07-05</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -20374,8 +20374,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R251" t="str">
-        <f ca="1" t="shared" si="25"/>
-        <v>2024-08-12</v>
+        <f ca="1" t="shared" si="24"/>
+        <v>2025-04-06</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -20432,8 +20432,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R252" t="str">
-        <f ca="1" t="shared" si="25"/>
-        <v>2023-12-13</v>
+        <f ca="1" t="shared" si="24"/>
+        <v>2025-01-23</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -20490,8 +20490,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R253" t="str">
-        <f ca="1" t="shared" si="25"/>
-        <v>2023-10-19</v>
+        <f ca="1" t="shared" ref="R253:R262" si="25">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-01-02</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -20549,7 +20549,7 @@
       </c>
       <c r="R254" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>2024-03-27</v>
+        <v>2025-03-20</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -20607,7 +20607,7 @@
       </c>
       <c r="R255" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>2024-08-28</v>
+        <v>2025-02-23</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -20665,7 +20665,7 @@
       </c>
       <c r="R256" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>2023-08-17</v>
+        <v>2025-03-13</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -20720,7 +20720,7 @@
       </c>
       <c r="R257" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>2025-05-18</v>
+        <v>2025-02-28</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -20778,7 +20778,7 @@
       </c>
       <c r="R258" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>2024-09-12</v>
+        <v>2024-12-25</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -20832,8 +20832,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R259" t="str">
-        <f ca="1" t="shared" ref="R259:R268" si="26">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2023-09-03</v>
+        <f ca="1" t="shared" si="25"/>
+        <v>2024-08-15</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -20890,8 +20890,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R260" t="str">
-        <f ca="1" t="shared" si="26"/>
-        <v>2024-02-22</v>
+        <f ca="1" t="shared" si="25"/>
+        <v>2024-11-27</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -20947,8 +20947,8 @@
         <v>138</v>
       </c>
       <c r="R261" t="str">
-        <f ca="1" t="shared" si="26"/>
-        <v>2024-01-04</v>
+        <f ca="1" t="shared" si="25"/>
+        <v>2025-08-31</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -21005,8 +21005,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R262" t="str">
-        <f ca="1" t="shared" si="26"/>
-        <v>2024-12-10</v>
+        <f ca="1" t="shared" si="25"/>
+        <v>2025-02-16</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -21063,8 +21063,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R263" t="str">
-        <f ca="1" t="shared" si="26"/>
-        <v>2024-09-27</v>
+        <f ca="1" t="shared" ref="R263:R272" si="26">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-07-14</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -21122,7 +21122,7 @@
       </c>
       <c r="R264" t="str">
         <f ca="1" t="shared" si="26"/>
-        <v>2025-01-14</v>
+        <v>2025-06-14</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -21180,7 +21180,7 @@
       </c>
       <c r="R265" t="str">
         <f ca="1" t="shared" si="26"/>
-        <v>2023-08-13</v>
+        <v>2025-08-08</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -21235,7 +21235,7 @@
       </c>
       <c r="R266" t="str">
         <f ca="1" t="shared" si="26"/>
-        <v>2025-03-16</v>
+        <v>2024-10-05</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -21292,7 +21292,7 @@
       </c>
       <c r="R267" t="str">
         <f ca="1" t="shared" si="26"/>
-        <v>2024-10-02</v>
+        <v>2025-08-14</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -21349,7 +21349,7 @@
       </c>
       <c r="R268" t="str">
         <f ca="1" t="shared" si="26"/>
-        <v>2023-11-01</v>
+        <v>2025-09-01</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -21406,8 +21406,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R269" t="str">
-        <f ca="1" t="shared" ref="R269:R278" si="27">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-12-23</v>
+        <f ca="1" t="shared" si="26"/>
+        <v>2025-02-10</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -21460,8 +21460,8 @@
         <v>33</v>
       </c>
       <c r="R270" t="str">
-        <f ca="1" t="shared" si="27"/>
-        <v>2024-12-12</v>
+        <f ca="1" t="shared" si="26"/>
+        <v>2025-08-10</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -21518,8 +21518,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R271" t="str">
-        <f ca="1" t="shared" si="27"/>
-        <v>2023-08-28</v>
+        <f ca="1" t="shared" si="26"/>
+        <v>2025-04-03</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -21576,8 +21576,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R272" t="str">
-        <f ca="1" t="shared" si="27"/>
-        <v>2024-02-06</v>
+        <f ca="1" t="shared" si="26"/>
+        <v>2025-05-09</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -21634,8 +21634,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R273" t="str">
-        <f ca="1" t="shared" si="27"/>
-        <v>2024-08-12</v>
+        <f ca="1" t="shared" ref="R273:R282" si="27">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-07-22</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -21689,7 +21689,7 @@
       </c>
       <c r="R274" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>2024-11-16</v>
+        <v>2025-03-28</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -21743,7 +21743,7 @@
       </c>
       <c r="R275" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>2025-04-06</v>
+        <v>2025-09-07</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -21797,7 +21797,7 @@
       </c>
       <c r="R276" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>2025-03-31</v>
+        <v>2025-03-09</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -21851,7 +21851,7 @@
       </c>
       <c r="R277" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>2023-08-04</v>
+        <v>2025-01-19</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -21909,7 +21909,7 @@
       </c>
       <c r="R278" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>2023-08-02</v>
+        <v>2024-11-03</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -21966,8 +21966,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R279" t="str">
-        <f ca="1" t="shared" ref="R279:R288" si="28">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2023-08-17</v>
+        <f ca="1" t="shared" si="27"/>
+        <v>2024-08-27</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -22024,8 +22024,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R280" t="str">
-        <f ca="1" t="shared" si="28"/>
-        <v>2025-01-20</v>
+        <f ca="1" t="shared" si="27"/>
+        <v>2025-05-06</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -22082,8 +22082,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R281" t="str">
-        <f ca="1" t="shared" si="28"/>
-        <v>2024-04-03</v>
+        <f ca="1" t="shared" si="27"/>
+        <v>2025-08-17</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -22140,8 +22140,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R282" t="str">
-        <f ca="1" t="shared" si="28"/>
-        <v>2025-05-16</v>
+        <f ca="1" t="shared" si="27"/>
+        <v>2025-06-18</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -22194,8 +22194,8 @@
         <v>33</v>
       </c>
       <c r="R283" t="str">
-        <f ca="1" t="shared" si="28"/>
-        <v>2025-05-03</v>
+        <f ca="1" t="shared" ref="R283:R292" si="28">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2024-10-17</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -22249,7 +22249,7 @@
       </c>
       <c r="R284" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>2024-12-14</v>
+        <v>2025-04-11</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -22303,7 +22303,7 @@
       </c>
       <c r="R285" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>2023-09-03</v>
+        <v>2024-10-03</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="R286" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>2024-10-24</v>
+        <v>2025-03-04</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -22414,7 +22414,7 @@
       </c>
       <c r="R287" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>2024-05-17</v>
+        <v>2025-09-28</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -22472,7 +22472,7 @@
       </c>
       <c r="R288" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>2023-11-23</v>
+        <v>2024-09-19</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -22525,8 +22525,8 @@
         <v>33</v>
       </c>
       <c r="R289" t="str">
-        <f ca="1" t="shared" ref="R289:R298" si="29">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-12-17</v>
+        <f ca="1" t="shared" si="28"/>
+        <v>2025-08-26</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -22583,8 +22583,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R290" t="str">
-        <f ca="1" t="shared" si="29"/>
-        <v>2024-08-08</v>
+        <f ca="1" t="shared" si="28"/>
+        <v>2024-10-18</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -22641,8 +22641,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R291" t="str">
-        <f ca="1" t="shared" si="29"/>
-        <v>2025-04-28</v>
+        <f ca="1" t="shared" si="28"/>
+        <v>2025-09-28</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -22695,8 +22695,8 @@
         <v>33</v>
       </c>
       <c r="R292" t="str">
-        <f ca="1" t="shared" si="29"/>
-        <v>2024-11-10</v>
+        <f ca="1" t="shared" si="28"/>
+        <v>2025-06-10</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -22750,8 +22750,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R293" t="str">
-        <f ca="1" t="shared" si="29"/>
-        <v>2023-10-14</v>
+        <f ca="1" t="shared" ref="R293:R302" si="29">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-07-04</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -22809,7 +22809,7 @@
       </c>
       <c r="R294" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>2025-04-12</v>
+        <v>2024-10-31</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -22867,7 +22867,7 @@
       </c>
       <c r="R295" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>2024-06-29</v>
+        <v>2024-08-14</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -22925,7 +22925,7 @@
       </c>
       <c r="R296" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>2024-12-29</v>
+        <v>2025-01-01</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -22979,7 +22979,7 @@
       </c>
       <c r="R297" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>2024-05-11</v>
+        <v>2024-09-04</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -23033,7 +23033,7 @@
       </c>
       <c r="R298" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>2024-08-03</v>
+        <v>2025-03-16</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -23090,8 +23090,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R299" t="str">
-        <f ca="1" t="shared" ref="R299:R308" si="30">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2025-06-10</v>
+        <f ca="1" t="shared" si="29"/>
+        <v>2024-10-31</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -23147,8 +23147,8 @@
         <v>138</v>
       </c>
       <c r="R300" t="str">
-        <f ca="1" t="shared" si="30"/>
-        <v>2024-09-14</v>
+        <f ca="1" t="shared" si="29"/>
+        <v>2025-04-06</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -23205,8 +23205,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R301" t="str">
-        <f ca="1" t="shared" si="30"/>
-        <v>2025-04-01</v>
+        <f ca="1" t="shared" si="29"/>
+        <v>2025-05-15</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -23259,8 +23259,8 @@
         <v>33</v>
       </c>
       <c r="R302" t="str">
-        <f ca="1" t="shared" si="30"/>
-        <v>2024-11-21</v>
+        <f ca="1" t="shared" si="29"/>
+        <v>2025-03-25</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -23313,8 +23313,8 @@
         <v>33</v>
       </c>
       <c r="R303" t="str">
-        <f ca="1" t="shared" si="30"/>
-        <v>2024-12-04</v>
+        <f ca="1" t="shared" ref="R303:R312" si="30">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-01-10</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -23372,7 +23372,7 @@
       </c>
       <c r="R304" t="str">
         <f ca="1" t="shared" si="30"/>
-        <v>2023-10-10</v>
+        <v>2025-04-13</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -23430,7 +23430,7 @@
       </c>
       <c r="R305" t="str">
         <f ca="1" t="shared" si="30"/>
-        <v>2024-09-03</v>
+        <v>2024-09-02</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -23488,7 +23488,7 @@
       </c>
       <c r="R306" t="str">
         <f ca="1" t="shared" si="30"/>
-        <v>2025-05-17</v>
+        <v>2025-08-03</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -23546,7 +23546,7 @@
       </c>
       <c r="R307" t="str">
         <f ca="1" t="shared" si="30"/>
-        <v>2025-02-15</v>
+        <v>2024-09-09</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -23604,7 +23604,7 @@
       </c>
       <c r="R308" t="str">
         <f ca="1" t="shared" si="30"/>
-        <v>2024-02-13</v>
+        <v>2025-06-11</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -23661,8 +23661,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R309" t="str">
-        <f ca="1" t="shared" ref="R309:R318" si="31">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-12-19</v>
+        <f ca="1" t="shared" si="30"/>
+        <v>2025-01-29</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -23719,8 +23719,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R310" t="str">
-        <f ca="1" t="shared" si="31"/>
-        <v>2025-05-30</v>
+        <f ca="1" t="shared" si="30"/>
+        <v>2025-04-18</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -23773,8 +23773,8 @@
         <v>33</v>
       </c>
       <c r="R311" t="str">
-        <f ca="1" t="shared" si="31"/>
-        <v>2024-12-14</v>
+        <f ca="1" t="shared" si="30"/>
+        <v>2024-10-02</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -23831,8 +23831,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R312" t="str">
-        <f ca="1" t="shared" si="31"/>
-        <v>2025-01-10</v>
+        <f ca="1" t="shared" si="30"/>
+        <v>2025-09-22</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -23886,8 +23886,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R313" t="str">
-        <f ca="1" t="shared" si="31"/>
-        <v>2023-10-10</v>
+        <f ca="1" t="shared" ref="R313:R322" si="31">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-04-14</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -23941,7 +23941,7 @@
       </c>
       <c r="R314" t="str">
         <f ca="1" t="shared" si="31"/>
-        <v>2023-08-18</v>
+        <v>2025-08-06</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -23999,7 +23999,7 @@
       </c>
       <c r="R315" t="str">
         <f ca="1" t="shared" si="31"/>
-        <v>2025-01-09</v>
+        <v>2025-02-19</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -24057,7 +24057,7 @@
       </c>
       <c r="R316" t="str">
         <f ca="1" t="shared" si="31"/>
-        <v>2025-03-17</v>
+        <v>2025-06-25</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -24115,7 +24115,7 @@
       </c>
       <c r="R317" t="str">
         <f ca="1" t="shared" si="31"/>
-        <v>2024-10-17</v>
+        <v>2025-01-03</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -24170,7 +24170,7 @@
       </c>
       <c r="R318" t="str">
         <f ca="1" t="shared" si="31"/>
-        <v>2024-03-10</v>
+        <v>2025-09-16</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -24227,8 +24227,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R319" t="str">
-        <f ca="1" t="shared" ref="R319:R328" si="32">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2023-10-15</v>
+        <f ca="1" t="shared" si="31"/>
+        <v>2024-09-14</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -24285,8 +24285,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R320" t="str">
-        <f ca="1" t="shared" si="32"/>
-        <v>2025-06-17</v>
+        <f ca="1" t="shared" si="31"/>
+        <v>2025-03-07</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -24343,8 +24343,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R321" t="str">
-        <f ca="1" t="shared" si="32"/>
-        <v>2024-03-27</v>
+        <f ca="1" t="shared" si="31"/>
+        <v>2025-04-21</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -24401,8 +24401,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R322" t="str">
-        <f ca="1" t="shared" si="32"/>
-        <v>2023-09-19</v>
+        <f ca="1" t="shared" si="31"/>
+        <v>2024-10-13</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -24459,8 +24459,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R323" t="str">
-        <f ca="1" t="shared" si="32"/>
-        <v>2023-11-27</v>
+        <f ca="1" t="shared" ref="R323:R332" si="32">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-03-05</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -24514,7 +24514,7 @@
       </c>
       <c r="R324" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v>2025-03-04</v>
+        <v>2024-12-31</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -24571,7 +24571,7 @@
       </c>
       <c r="R325" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v>2024-12-12</v>
+        <v>2025-04-28</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -24625,7 +24625,7 @@
       </c>
       <c r="R326" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v>2024-04-18</v>
+        <v>2025-01-05</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -24683,7 +24683,7 @@
       </c>
       <c r="R327" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v>2025-02-07</v>
+        <v>2024-10-19</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -24741,7 +24741,7 @@
       </c>
       <c r="R328" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v>2024-03-11</v>
+        <v>2024-10-04</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -24797,8 +24797,8 @@
         <v>138</v>
       </c>
       <c r="R329" t="str">
-        <f ca="1" t="shared" ref="R329:R338" si="33">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-01-21</v>
+        <f ca="1" t="shared" si="32"/>
+        <v>2025-05-07</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -24851,8 +24851,8 @@
         <v>33</v>
       </c>
       <c r="R330" t="str">
-        <f ca="1" t="shared" si="33"/>
-        <v>2023-09-29</v>
+        <f ca="1" t="shared" si="32"/>
+        <v>2025-08-07</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -24905,8 +24905,8 @@
         <v>33</v>
       </c>
       <c r="R331" t="str">
-        <f ca="1" t="shared" si="33"/>
-        <v>2025-03-01</v>
+        <f ca="1" t="shared" si="32"/>
+        <v>2025-07-09</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -24963,8 +24963,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R332" t="str">
-        <f ca="1" t="shared" si="33"/>
-        <v>2025-05-18</v>
+        <f ca="1" t="shared" si="32"/>
+        <v>2025-09-19</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -25017,8 +25017,8 @@
         <v>33</v>
       </c>
       <c r="R333" t="str">
-        <f ca="1" t="shared" si="33"/>
-        <v>2024-06-14</v>
+        <f ca="1" t="shared" ref="R333:R342" si="33">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-08-18</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -25072,7 +25072,7 @@
       </c>
       <c r="R334" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v>2024-10-11</v>
+        <v>2025-05-25</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -25126,7 +25126,7 @@
       </c>
       <c r="R335" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v>2024-11-29</v>
+        <v>2025-08-01</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -25184,7 +25184,7 @@
       </c>
       <c r="R336" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v>2024-12-14</v>
+        <v>2025-06-16</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -25242,7 +25242,7 @@
       </c>
       <c r="R337" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v>2023-08-03</v>
+        <v>2024-12-10</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -25300,7 +25300,7 @@
       </c>
       <c r="R338" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v>2025-02-24</v>
+        <v>2025-01-16</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -25357,8 +25357,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R339" t="str">
-        <f ca="1" t="shared" ref="R339:R348" si="34">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-12-21</v>
+        <f ca="1" t="shared" si="33"/>
+        <v>2025-07-31</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -25415,8 +25415,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R340" t="str">
-        <f ca="1" t="shared" si="34"/>
-        <v>2024-12-27</v>
+        <f ca="1" t="shared" si="33"/>
+        <v>2025-01-07</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -25472,8 +25472,8 @@
         <v>138</v>
       </c>
       <c r="R341" t="str">
-        <f ca="1" t="shared" si="34"/>
-        <v>2023-10-06</v>
+        <f ca="1" t="shared" si="33"/>
+        <v>2024-08-23</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -25530,8 +25530,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R342" t="str">
-        <f ca="1" t="shared" si="34"/>
-        <v>2025-06-07</v>
+        <f ca="1" t="shared" si="33"/>
+        <v>2025-09-11</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -25584,8 +25584,8 @@
         <v>33</v>
       </c>
       <c r="R343" t="str">
-        <f ca="1" t="shared" si="34"/>
-        <v>2024-08-03</v>
+        <f ca="1" t="shared" ref="R343:R352" si="34">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-04-18</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -25640,7 +25640,7 @@
       </c>
       <c r="R344" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v>2024-12-07</v>
+        <v>2025-04-25</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -25695,7 +25695,7 @@
       </c>
       <c r="R345" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v>2024-09-03</v>
+        <v>2025-02-14</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -25753,7 +25753,7 @@
       </c>
       <c r="R346" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v>2024-02-12</v>
+        <v>2025-01-07</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -25807,7 +25807,7 @@
       </c>
       <c r="R347" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v>2024-09-27</v>
+        <v>2025-07-14</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -25864,7 +25864,7 @@
       </c>
       <c r="R348" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v>2024-07-09</v>
+        <v>2024-09-28</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -25921,8 +25921,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R349" t="str">
-        <f ca="1" t="shared" ref="R349:R358" si="35">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-07-09</v>
+        <f ca="1" t="shared" si="34"/>
+        <v>2024-12-01</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -25979,8 +25979,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R350" t="str">
-        <f ca="1" t="shared" si="35"/>
-        <v>2023-12-18</v>
+        <f ca="1" t="shared" si="34"/>
+        <v>2025-07-15</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -26036,8 +26036,8 @@
         <v>138</v>
       </c>
       <c r="R351" t="str">
-        <f ca="1" t="shared" si="35"/>
-        <v>2023-09-04</v>
+        <f ca="1" t="shared" si="34"/>
+        <v>2025-08-27</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -26090,8 +26090,8 @@
         <v>33</v>
       </c>
       <c r="R352" t="str">
-        <f ca="1" t="shared" si="35"/>
-        <v>2024-06-19</v>
+        <f ca="1" t="shared" si="34"/>
+        <v>2024-11-12</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -26144,8 +26144,8 @@
         <v>33</v>
       </c>
       <c r="R353" t="str">
-        <f ca="1" t="shared" si="35"/>
-        <v>2025-03-12</v>
+        <f ca="1" t="shared" ref="R353:R362" si="35">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2024-09-20</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -26203,7 +26203,7 @@
       </c>
       <c r="R354" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v>2024-04-08</v>
+        <v>2025-09-23</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -26258,7 +26258,7 @@
       </c>
       <c r="R355" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v>2025-02-01</v>
+        <v>2025-10-07</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -26315,7 +26315,7 @@
       </c>
       <c r="R356" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v>2024-09-20</v>
+        <v>2024-09-25</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -26373,7 +26373,7 @@
       </c>
       <c r="R357" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v>2023-11-22</v>
+        <v>2025-06-28</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -26431,7 +26431,7 @@
       </c>
       <c r="R358" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v>2024-12-31</v>
+        <v>2025-05-21</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -26488,8 +26488,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R359" t="str">
-        <f ca="1" t="shared" ref="R359:R368" si="36">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2025-01-09</v>
+        <f ca="1" t="shared" si="35"/>
+        <v>2024-11-23</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -26546,8 +26546,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R360" t="str">
-        <f ca="1" t="shared" si="36"/>
-        <v>2025-02-22</v>
+        <f ca="1" t="shared" si="35"/>
+        <v>2025-08-18</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -26604,8 +26604,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R361" t="str">
-        <f ca="1" t="shared" si="36"/>
-        <v>2024-07-11</v>
+        <f ca="1" t="shared" si="35"/>
+        <v>2025-04-17</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -26662,8 +26662,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R362" t="str">
-        <f ca="1" t="shared" si="36"/>
-        <v>2023-09-22</v>
+        <f ca="1" t="shared" si="35"/>
+        <v>2025-02-06</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -26720,8 +26720,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R363" t="str">
-        <f ca="1" t="shared" si="36"/>
-        <v>2025-01-19</v>
+        <f ca="1" t="shared" ref="R363:R372" si="36">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-08-15</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -26779,7 +26779,7 @@
       </c>
       <c r="R364" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v>2025-06-09</v>
+        <v>2025-01-10</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -26837,7 +26837,7 @@
       </c>
       <c r="R365" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v>2024-12-17</v>
+        <v>2024-10-17</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -26895,7 +26895,7 @@
       </c>
       <c r="R366" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v>2023-09-29</v>
+        <v>2025-09-24</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -26953,7 +26953,7 @@
       </c>
       <c r="R367" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v>2024-01-06</v>
+        <v>2024-11-08</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -27007,7 +27007,7 @@
       </c>
       <c r="R368" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v>2023-09-11</v>
+        <v>2025-06-15</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -27060,8 +27060,8 @@
         <v>33</v>
       </c>
       <c r="R369" t="str">
-        <f ca="1" t="shared" ref="R369:R378" si="37">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2023-10-02</v>
+        <f ca="1" t="shared" si="36"/>
+        <v>2025-09-08</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -27118,8 +27118,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R370" t="str">
-        <f ca="1" t="shared" si="37"/>
-        <v>2023-09-30</v>
+        <f ca="1" t="shared" si="36"/>
+        <v>2024-12-09</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -27176,8 +27176,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R371" t="str">
-        <f ca="1" t="shared" si="37"/>
-        <v>2023-10-09</v>
+        <f ca="1" t="shared" si="36"/>
+        <v>2024-09-01</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -27230,8 +27230,8 @@
         <v>33</v>
       </c>
       <c r="R372" t="str">
-        <f ca="1" t="shared" si="37"/>
-        <v>2025-04-08</v>
+        <f ca="1" t="shared" si="36"/>
+        <v>2025-06-19</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -27288,8 +27288,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R373" t="str">
-        <f ca="1" t="shared" si="37"/>
-        <v>2024-12-06</v>
+        <f ca="1" t="shared" ref="R373:R382" si="37">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2024-09-21</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -27343,7 +27343,7 @@
       </c>
       <c r="R374" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v>2025-03-14</v>
+        <v>2024-11-27</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -27397,7 +27397,7 @@
       </c>
       <c r="R375" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v>2024-01-22</v>
+        <v>2024-11-04</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -27451,7 +27451,7 @@
       </c>
       <c r="R376" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v>2025-01-21</v>
+        <v>2025-07-03</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -27509,7 +27509,7 @@
       </c>
       <c r="R377" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v>2025-03-25</v>
+        <v>2024-12-29</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -27567,7 +27567,7 @@
       </c>
       <c r="R378" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v>2024-03-20</v>
+        <v>2024-12-18</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -27624,8 +27624,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R379" t="str">
-        <f ca="1" t="shared" ref="R379:R388" si="38">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-07-07</v>
+        <f ca="1" t="shared" si="37"/>
+        <v>2025-07-06</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -27682,8 +27682,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R380" t="str">
-        <f ca="1" t="shared" si="38"/>
-        <v>2024-02-25</v>
+        <f ca="1" t="shared" si="37"/>
+        <v>2024-12-24</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -27740,8 +27740,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R381" t="str">
-        <f ca="1" t="shared" si="38"/>
-        <v>2024-07-15</v>
+        <f ca="1" t="shared" si="37"/>
+        <v>2025-10-03</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -27798,8 +27798,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R382" t="str">
-        <f ca="1" t="shared" si="38"/>
-        <v>2024-04-07</v>
+        <f ca="1" t="shared" si="37"/>
+        <v>2024-12-16</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -27856,8 +27856,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R383" t="str">
-        <f ca="1" t="shared" si="38"/>
-        <v>2024-01-04</v>
+        <f ca="1" t="shared" ref="R383:R392" si="38">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-06-12</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -27915,7 +27915,7 @@
       </c>
       <c r="R384" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v>2024-02-13</v>
+        <v>2025-04-27</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -27973,7 +27973,7 @@
       </c>
       <c r="R385" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v>2024-03-06</v>
+        <v>2025-04-03</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -28031,7 +28031,7 @@
       </c>
       <c r="R386" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v>2025-01-12</v>
+        <v>2024-09-14</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -28089,7 +28089,7 @@
       </c>
       <c r="R387" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v>2023-08-23</v>
+        <v>2025-03-12</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -28143,7 +28143,7 @@
       </c>
       <c r="R388" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v>2024-07-17</v>
+        <v>2025-04-07</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -28200,8 +28200,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R389" t="str">
-        <f ca="1" t="shared" ref="R389:R398" si="39">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2023-10-24</v>
+        <f ca="1" t="shared" si="38"/>
+        <v>2024-09-10</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -28257,8 +28257,8 @@
         <v>138</v>
       </c>
       <c r="R390" t="str">
-        <f ca="1" t="shared" si="39"/>
-        <v>2025-02-21</v>
+        <f ca="1" t="shared" si="38"/>
+        <v>2024-10-08</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -28315,8 +28315,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R391" t="str">
-        <f ca="1" t="shared" si="39"/>
-        <v>2024-08-15</v>
+        <f ca="1" t="shared" si="38"/>
+        <v>2025-01-13</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -28369,8 +28369,8 @@
         <v>33</v>
       </c>
       <c r="R392" t="str">
-        <f ca="1" t="shared" si="39"/>
-        <v>2024-12-08</v>
+        <f ca="1" t="shared" si="38"/>
+        <v>2025-07-08</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -28423,8 +28423,8 @@
         <v>33</v>
       </c>
       <c r="R393" t="str">
-        <f ca="1" t="shared" si="39"/>
-        <v>2024-01-28</v>
+        <f ca="1" t="shared" ref="R393:R402" si="39">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-02-24</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -28479,7 +28479,7 @@
       </c>
       <c r="R394" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v>2024-10-13</v>
+        <v>2024-11-22</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -28537,7 +28537,7 @@
       </c>
       <c r="R395" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v>2023-11-11</v>
+        <v>2025-04-06</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -28591,7 +28591,7 @@
       </c>
       <c r="R396" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v>2024-11-30</v>
+        <v>2024-08-02</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -28648,7 +28648,7 @@
       </c>
       <c r="R397" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v>2024-04-04</v>
+        <v>2024-10-27</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -28705,7 +28705,7 @@
       </c>
       <c r="R398" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v>2024-04-15</v>
+        <v>2025-04-16</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -28758,8 +28758,8 @@
         <v>33</v>
       </c>
       <c r="R399" t="str">
-        <f ca="1" t="shared" ref="R399:R408" si="40">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-02-24</v>
+        <f ca="1" t="shared" si="39"/>
+        <v>2024-11-01</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -28812,8 +28812,8 @@
         <v>33</v>
       </c>
       <c r="R400" t="str">
-        <f ca="1" t="shared" si="40"/>
-        <v>2024-12-06</v>
+        <f ca="1" t="shared" si="39"/>
+        <v>2025-04-15</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -28870,8 +28870,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R401" t="str">
-        <f ca="1" t="shared" si="40"/>
-        <v>2024-03-06</v>
+        <f ca="1" t="shared" si="39"/>
+        <v>2025-03-06</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -28924,8 +28924,8 @@
         <v>33</v>
       </c>
       <c r="R402" t="str">
-        <f ca="1" t="shared" si="40"/>
-        <v>2024-04-22</v>
+        <f ca="1" t="shared" si="39"/>
+        <v>2025-02-16</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -28982,8 +28982,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R403" t="str">
-        <f ca="1" t="shared" si="40"/>
-        <v>2025-02-28</v>
+        <f ca="1" t="shared" ref="R403:R412" si="40">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-04-23</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -29041,7 +29041,7 @@
       </c>
       <c r="R404" t="str">
         <f ca="1" t="shared" si="40"/>
-        <v>2023-09-27</v>
+        <v>2025-06-05</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -29099,7 +29099,7 @@
       </c>
       <c r="R405" t="str">
         <f ca="1" t="shared" si="40"/>
-        <v>2023-11-17</v>
+        <v>2025-01-04</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -29153,7 +29153,7 @@
       </c>
       <c r="R406" t="str">
         <f ca="1" t="shared" si="40"/>
-        <v>2023-12-29</v>
+        <v>2025-03-28</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -29211,7 +29211,7 @@
       </c>
       <c r="R407" t="str">
         <f ca="1" t="shared" si="40"/>
-        <v>2023-12-06</v>
+        <v>2025-02-25</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -29269,7 +29269,7 @@
       </c>
       <c r="R408" t="str">
         <f ca="1" t="shared" si="40"/>
-        <v>2025-03-06</v>
+        <v>2025-02-20</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -29326,8 +29326,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R409" t="str">
-        <f ca="1" t="shared" ref="R409:R418" si="41">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-11-19</v>
+        <f ca="1" t="shared" si="40"/>
+        <v>2025-03-07</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -29381,8 +29381,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R410" t="str">
-        <f ca="1" t="shared" si="41"/>
-        <v>2023-08-16</v>
+        <f ca="1" t="shared" si="40"/>
+        <v>2025-07-21</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -29439,8 +29439,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R411" t="str">
-        <f ca="1" t="shared" si="41"/>
-        <v>2024-10-19</v>
+        <f ca="1" t="shared" si="40"/>
+        <v>2024-12-19</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -29497,8 +29497,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R412" t="str">
-        <f ca="1" t="shared" si="41"/>
-        <v>2025-03-12</v>
+        <f ca="1" t="shared" si="40"/>
+        <v>2024-11-08</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -29555,8 +29555,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R413" t="str">
-        <f ca="1" t="shared" si="41"/>
-        <v>2024-02-10</v>
+        <f ca="1" t="shared" ref="R413:R422" si="41">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2024-10-09</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -29610,7 +29610,7 @@
       </c>
       <c r="R414" t="str">
         <f ca="1" t="shared" si="41"/>
-        <v>2023-09-02</v>
+        <v>2025-04-06</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -29668,7 +29668,7 @@
       </c>
       <c r="R415" t="str">
         <f ca="1" t="shared" si="41"/>
-        <v>2024-08-29</v>
+        <v>2024-12-20</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -29726,7 +29726,7 @@
       </c>
       <c r="R416" t="str">
         <f ca="1" t="shared" si="41"/>
-        <v>2023-12-30</v>
+        <v>2024-11-03</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -29784,7 +29784,7 @@
       </c>
       <c r="R417" t="str">
         <f ca="1" t="shared" si="41"/>
-        <v>2024-07-18</v>
+        <v>2025-04-09</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -29842,7 +29842,7 @@
       </c>
       <c r="R418" t="str">
         <f ca="1" t="shared" si="41"/>
-        <v>2023-10-05</v>
+        <v>2025-06-17</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -29895,8 +29895,8 @@
         <v>33</v>
       </c>
       <c r="R419" t="str">
-        <f ca="1" t="shared" ref="R419:R428" si="42">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2023-08-03</v>
+        <f ca="1" t="shared" si="41"/>
+        <v>2025-02-23</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -29953,8 +29953,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R420" t="str">
-        <f ca="1" t="shared" si="42"/>
-        <v>2025-01-01</v>
+        <f ca="1" t="shared" si="41"/>
+        <v>2025-02-24</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -30011,8 +30011,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R421" t="str">
-        <f ca="1" t="shared" si="42"/>
-        <v>2024-03-11</v>
+        <f ca="1" t="shared" si="41"/>
+        <v>2025-05-29</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -30065,8 +30065,8 @@
         <v>33</v>
       </c>
       <c r="R422" t="str">
-        <f ca="1" t="shared" si="42"/>
-        <v>2024-02-17</v>
+        <f ca="1" t="shared" si="41"/>
+        <v>2025-03-05</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -30119,8 +30119,8 @@
         <v>33</v>
       </c>
       <c r="R423" t="str">
-        <f ca="1" t="shared" si="42"/>
-        <v>2025-01-28</v>
+        <f ca="1" t="shared" ref="R423:R432" si="42">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-08-11</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -30178,7 +30178,7 @@
       </c>
       <c r="R424" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v>2024-09-05</v>
+        <v>2025-08-26</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -30236,7 +30236,7 @@
       </c>
       <c r="R425" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v>2025-03-13</v>
+        <v>2024-11-04</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -30294,7 +30294,7 @@
       </c>
       <c r="R426" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v>2024-01-16</v>
+        <v>2024-12-04</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -30352,7 +30352,7 @@
       </c>
       <c r="R427" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v>2023-09-22</v>
+        <v>2025-03-12</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -30410,7 +30410,7 @@
       </c>
       <c r="R428" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v>2024-08-31</v>
+        <v>2024-12-17</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -30467,8 +30467,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R429" t="str">
-        <f ca="1" t="shared" ref="R429:R438" si="43">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-01-16</v>
+        <f ca="1" t="shared" si="42"/>
+        <v>2024-11-20</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -30525,8 +30525,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R430" t="str">
-        <f ca="1" t="shared" si="43"/>
-        <v>2024-09-19</v>
+        <f ca="1" t="shared" si="42"/>
+        <v>2025-10-04</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -30579,8 +30579,8 @@
         <v>33</v>
       </c>
       <c r="R431" t="str">
-        <f ca="1" t="shared" si="43"/>
-        <v>2024-01-07</v>
+        <f ca="1" t="shared" si="42"/>
+        <v>2024-09-20</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -30637,8 +30637,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R432" t="str">
-        <f ca="1" t="shared" si="43"/>
-        <v>2025-02-28</v>
+        <f ca="1" t="shared" si="42"/>
+        <v>2025-07-07</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -30695,8 +30695,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R433" t="str">
-        <f ca="1" t="shared" si="43"/>
-        <v>2025-02-04</v>
+        <f ca="1" t="shared" ref="R433:R442" si="43">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2024-11-05</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -30750,7 +30750,7 @@
       </c>
       <c r="R434" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v>2025-02-28</v>
+        <v>2025-02-24</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -30808,7 +30808,7 @@
       </c>
       <c r="R435" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v>2024-08-08</v>
+        <v>2024-12-03</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -30862,7 +30862,7 @@
       </c>
       <c r="R436" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v>2024-12-06</v>
+        <v>2024-08-04</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -30920,7 +30920,7 @@
       </c>
       <c r="R437" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v>2024-10-14</v>
+        <v>2024-10-29</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -30978,7 +30978,7 @@
       </c>
       <c r="R438" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v>2024-06-03</v>
+        <v>2025-08-19</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -31031,8 +31031,8 @@
         <v>33</v>
       </c>
       <c r="R439" t="str">
-        <f ca="1" t="shared" ref="R439:R448" si="44">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2025-01-12</v>
+        <f ca="1" t="shared" si="43"/>
+        <v>2024-08-13</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -31089,8 +31089,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R440" t="str">
-        <f ca="1" t="shared" si="44"/>
-        <v>2024-04-11</v>
+        <f ca="1" t="shared" si="43"/>
+        <v>2025-08-08</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -31143,8 +31143,8 @@
         <v>33</v>
       </c>
       <c r="R441" t="str">
-        <f ca="1" t="shared" si="44"/>
-        <v>2023-12-31</v>
+        <f ca="1" t="shared" si="43"/>
+        <v>2024-10-04</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -31201,8 +31201,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R442" t="str">
-        <f ca="1" t="shared" si="44"/>
-        <v>2023-10-17</v>
+        <f ca="1" t="shared" si="43"/>
+        <v>2024-11-16</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -31259,8 +31259,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R443" t="str">
-        <f ca="1" t="shared" si="44"/>
-        <v>2024-10-18</v>
+        <f ca="1" t="shared" ref="R443:R452" si="44">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-08-25</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -31318,7 +31318,7 @@
       </c>
       <c r="R444" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v>2024-07-05</v>
+        <v>2024-08-20</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -31376,7 +31376,7 @@
       </c>
       <c r="R445" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v>2024-10-07</v>
+        <v>2024-09-27</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -31434,7 +31434,7 @@
       </c>
       <c r="R446" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v>2024-07-04</v>
+        <v>2025-07-25</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -31488,7 +31488,7 @@
       </c>
       <c r="R447" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v>2024-09-11</v>
+        <v>2025-02-23</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -31546,7 +31546,7 @@
       </c>
       <c r="R448" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v>2025-01-20</v>
+        <v>2025-08-27</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -31603,8 +31603,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R449" t="str">
-        <f ca="1" t="shared" ref="R449:R458" si="45">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2025-03-23</v>
+        <f ca="1" t="shared" si="44"/>
+        <v>2025-09-01</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -31661,8 +31661,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R450" t="str">
-        <f ca="1" t="shared" si="45"/>
-        <v>2024-10-29</v>
+        <f ca="1" t="shared" si="44"/>
+        <v>2024-10-19</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -31719,8 +31719,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R451" t="str">
-        <f ca="1" t="shared" si="45"/>
-        <v>2023-08-09</v>
+        <f ca="1" t="shared" si="44"/>
+        <v>2025-08-03</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -31777,8 +31777,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R452" t="str">
-        <f ca="1" t="shared" si="45"/>
-        <v>2024-07-25</v>
+        <f ca="1" t="shared" si="44"/>
+        <v>2025-04-20</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -31835,8 +31835,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R453" t="str">
-        <f ca="1" t="shared" si="45"/>
-        <v>2023-10-25</v>
+        <f ca="1" t="shared" ref="R453:R462" si="45">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-08-10</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -31894,7 +31894,7 @@
       </c>
       <c r="R454" t="str">
         <f ca="1" t="shared" si="45"/>
-        <v>2025-02-03</v>
+        <v>2025-07-14</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -31952,7 +31952,7 @@
       </c>
       <c r="R455" t="str">
         <f ca="1" t="shared" si="45"/>
-        <v>2024-12-15</v>
+        <v>2025-05-14</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -32010,7 +32010,7 @@
       </c>
       <c r="R456" t="str">
         <f ca="1" t="shared" si="45"/>
-        <v>2023-10-22</v>
+        <v>2025-05-06</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -32068,7 +32068,7 @@
       </c>
       <c r="R457" t="str">
         <f ca="1" t="shared" si="45"/>
-        <v>2024-11-01</v>
+        <v>2024-12-16</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -32126,7 +32126,7 @@
       </c>
       <c r="R458" t="str">
         <f ca="1" t="shared" si="45"/>
-        <v>2024-02-08</v>
+        <v>2025-05-13</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -32183,8 +32183,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R459" t="str">
-        <f ca="1" t="shared" ref="R459:R468" si="46">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2025-03-22</v>
+        <f ca="1" t="shared" si="45"/>
+        <v>2025-01-19</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -32241,8 +32241,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R460" t="str">
-        <f ca="1" t="shared" si="46"/>
-        <v>2023-12-29</v>
+        <f ca="1" t="shared" si="45"/>
+        <v>2024-10-04</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -32299,8 +32299,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R461" t="str">
-        <f ca="1" t="shared" si="46"/>
-        <v>2024-06-28</v>
+        <f ca="1" t="shared" si="45"/>
+        <v>2024-10-30</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -32353,8 +32353,8 @@
         <v>33</v>
       </c>
       <c r="R462" t="str">
-        <f ca="1" t="shared" si="46"/>
-        <v>2025-02-26</v>
+        <f ca="1" t="shared" si="45"/>
+        <v>2025-07-13</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -32407,8 +32407,8 @@
         <v>33</v>
       </c>
       <c r="R463" t="str">
-        <f ca="1" t="shared" si="46"/>
-        <v>2025-02-07</v>
+        <f ca="1" t="shared" ref="R463:R472" si="46">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-09-26</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -32466,7 +32466,7 @@
       </c>
       <c r="R464" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>2024-07-14</v>
+        <v>2025-06-03</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -32520,7 +32520,7 @@
       </c>
       <c r="R465" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>2024-03-02</v>
+        <v>2024-10-13</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -32578,7 +32578,7 @@
       </c>
       <c r="R466" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>2024-11-08</v>
+        <v>2025-08-02</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -32636,7 +32636,7 @@
       </c>
       <c r="R467" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>2024-01-06</v>
+        <v>2025-04-25</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -32694,7 +32694,7 @@
       </c>
       <c r="R468" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>2023-12-10</v>
+        <v>2025-08-15</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -32751,8 +32751,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R469" t="str">
-        <f ca="1" t="shared" ref="R469:R478" si="47">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2025-03-25</v>
+        <f ca="1" t="shared" si="46"/>
+        <v>2025-09-11</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -32809,8 +32809,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R470" t="str">
-        <f ca="1" t="shared" si="47"/>
-        <v>2024-06-19</v>
+        <f ca="1" t="shared" si="46"/>
+        <v>2025-04-18</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -32866,8 +32866,8 @@
         <v>138</v>
       </c>
       <c r="R471" t="str">
-        <f ca="1" t="shared" si="47"/>
-        <v>2024-04-16</v>
+        <f ca="1" t="shared" si="46"/>
+        <v>2025-01-26</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -32923,8 +32923,8 @@
         <v>138</v>
       </c>
       <c r="R472" t="str">
-        <f ca="1" t="shared" si="47"/>
-        <v>2024-04-01</v>
+        <f ca="1" t="shared" si="46"/>
+        <v>2025-09-24</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -32981,8 +32981,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R473" t="str">
-        <f ca="1" t="shared" si="47"/>
-        <v>2023-12-30</v>
+        <f ca="1" t="shared" ref="R473:R482" si="47">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2024-09-22</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -33040,7 +33040,7 @@
       </c>
       <c r="R474" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>2024-09-09</v>
+        <v>2024-10-16</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -33098,7 +33098,7 @@
       </c>
       <c r="R475" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>2024-12-28</v>
+        <v>2024-08-21</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -33152,7 +33152,7 @@
       </c>
       <c r="R476" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>2024-07-10</v>
+        <v>2024-10-29</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -33209,7 +33209,7 @@
       </c>
       <c r="R477" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>2023-08-07</v>
+        <v>2024-11-12</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -33266,7 +33266,7 @@
       </c>
       <c r="R478" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>2023-08-10</v>
+        <v>2024-09-12</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -33323,8 +33323,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R479" t="str">
-        <f ca="1" t="shared" ref="R479:R488" si="48">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-06-22</v>
+        <f ca="1" t="shared" si="47"/>
+        <v>2025-02-23</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -33377,8 +33377,8 @@
         <v>33</v>
       </c>
       <c r="R480" t="str">
-        <f ca="1" t="shared" si="48"/>
-        <v>2024-11-04</v>
+        <f ca="1" t="shared" si="47"/>
+        <v>2024-09-11</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -33435,8 +33435,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R481" t="str">
-        <f ca="1" t="shared" si="48"/>
-        <v>2025-03-05</v>
+        <f ca="1" t="shared" si="47"/>
+        <v>2025-05-29</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -33493,8 +33493,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R482" t="str">
-        <f ca="1" t="shared" si="48"/>
-        <v>2025-01-03</v>
+        <f ca="1" t="shared" si="47"/>
+        <v>2024-10-11</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -33551,8 +33551,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R483" t="str">
-        <f ca="1" t="shared" si="48"/>
-        <v>2024-03-12</v>
+        <f ca="1" t="shared" ref="R483:R492" si="48">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2024-09-01</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -33606,7 +33606,7 @@
       </c>
       <c r="R484" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>2024-12-20</v>
+        <v>2025-07-18</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -33660,7 +33660,7 @@
       </c>
       <c r="R485" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>2024-04-06</v>
+        <v>2025-04-01</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -33718,7 +33718,7 @@
       </c>
       <c r="R486" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>2024-09-11</v>
+        <v>2025-09-29</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -33772,7 +33772,7 @@
       </c>
       <c r="R487" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>2024-08-17</v>
+        <v>2025-08-26</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -33830,7 +33830,7 @@
       </c>
       <c r="R488" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>2024-12-27</v>
+        <v>2024-12-31</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -33887,8 +33887,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R489" t="str">
-        <f ca="1" t="shared" ref="R489:R498" si="49">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-01-20</v>
+        <f ca="1" t="shared" si="48"/>
+        <v>2025-01-19</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -33945,8 +33945,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R490" t="str">
-        <f ca="1" t="shared" si="49"/>
-        <v>2024-07-05</v>
+        <f ca="1" t="shared" si="48"/>
+        <v>2025-07-09</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -33999,8 +33999,8 @@
         <v>33</v>
       </c>
       <c r="R491" t="str">
-        <f ca="1" t="shared" si="49"/>
-        <v>2024-08-29</v>
+        <f ca="1" t="shared" si="48"/>
+        <v>2025-08-09</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -34054,8 +34054,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R492" t="str">
-        <f ca="1" t="shared" si="49"/>
-        <v>2025-05-17</v>
+        <f ca="1" t="shared" si="48"/>
+        <v>2025-03-22</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -34109,8 +34109,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R493" t="str">
-        <f ca="1" t="shared" si="49"/>
-        <v>2025-04-29</v>
+        <f ca="1" t="shared" ref="R493:R502" si="49">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-07-05</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -34168,7 +34168,7 @@
       </c>
       <c r="R494" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>2024-10-04</v>
+        <v>2024-08-10</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -34223,7 +34223,7 @@
       </c>
       <c r="R495" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>2024-04-30</v>
+        <v>2025-02-08</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -34281,7 +34281,7 @@
       </c>
       <c r="R496" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>2025-01-02</v>
+        <v>2025-03-23</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -34335,7 +34335,7 @@
       </c>
       <c r="R497" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>2025-01-06</v>
+        <v>2025-03-12</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -34393,7 +34393,7 @@
       </c>
       <c r="R498" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>2023-11-16</v>
+        <v>2024-09-04</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -34446,8 +34446,8 @@
         <v>33</v>
       </c>
       <c r="R499" t="str">
-        <f ca="1" t="shared" ref="R499:R508" si="50">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-11-29</v>
+        <f ca="1" t="shared" si="49"/>
+        <v>2024-08-24</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -34500,8 +34500,8 @@
         <v>33</v>
       </c>
       <c r="R500" t="str">
-        <f ca="1" t="shared" si="50"/>
-        <v>2024-10-09</v>
+        <f ca="1" t="shared" si="49"/>
+        <v>2025-05-02</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -34558,8 +34558,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R501" t="str">
-        <f ca="1" t="shared" si="50"/>
-        <v>2025-06-05</v>
+        <f ca="1" t="shared" si="49"/>
+        <v>2025-06-14</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -34615,8 +34615,8 @@
         <v>33</v>
       </c>
       <c r="R502" t="str">
-        <f ca="1" t="shared" si="50"/>
-        <v>2024-08-17</v>
+        <f ca="1" t="shared" si="49"/>
+        <v>2024-12-12</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -34673,8 +34673,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R503" t="str">
-        <f ca="1" t="shared" si="50"/>
-        <v>2024-12-17</v>
+        <f ca="1" t="shared" ref="R503:R512" si="50">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2024-11-04</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -34732,7 +34732,7 @@
       </c>
       <c r="R504" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>2023-10-21</v>
+        <v>2025-02-19</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -34790,7 +34790,7 @@
       </c>
       <c r="R505" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>2024-07-29</v>
+        <v>2025-09-16</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -34848,7 +34848,7 @@
       </c>
       <c r="R506" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>2024-11-04</v>
+        <v>2024-11-17</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -34903,7 +34903,7 @@
       </c>
       <c r="R507" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>2024-03-05</v>
+        <v>2024-12-23</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -34961,7 +34961,7 @@
       </c>
       <c r="R508" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>2023-09-06</v>
+        <v>2025-01-20</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -35014,8 +35014,8 @@
         <v>33</v>
       </c>
       <c r="R509" t="str">
-        <f ca="1" t="shared" ref="R509:R518" si="51">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-11-07</v>
+        <f ca="1" t="shared" si="50"/>
+        <v>2025-01-21</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -35072,8 +35072,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R510" t="str">
-        <f ca="1" t="shared" si="51"/>
-        <v>2024-01-02</v>
+        <f ca="1" t="shared" si="50"/>
+        <v>2024-12-25</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -35126,8 +35126,8 @@
         <v>33</v>
       </c>
       <c r="R511" t="str">
-        <f ca="1" t="shared" si="51"/>
-        <v>2024-03-09</v>
+        <f ca="1" t="shared" si="50"/>
+        <v>2025-04-23</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -35180,8 +35180,8 @@
         <v>33</v>
       </c>
       <c r="R512" t="str">
-        <f ca="1" t="shared" si="51"/>
-        <v>2023-11-28</v>
+        <f ca="1" t="shared" si="50"/>
+        <v>2025-08-21</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -35234,8 +35234,8 @@
         <v>33</v>
       </c>
       <c r="R513" t="str">
-        <f ca="1" t="shared" si="51"/>
-        <v>2023-11-20</v>
+        <f ca="1" t="shared" ref="R513:R522" si="51">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-09-11</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -35289,7 +35289,7 @@
       </c>
       <c r="R514" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>2024-09-24</v>
+        <v>2024-12-20</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -35343,7 +35343,7 @@
       </c>
       <c r="R515" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>2024-08-04</v>
+        <v>2024-10-16</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -35401,7 +35401,7 @@
       </c>
       <c r="R516" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>2025-01-26</v>
+        <v>2025-03-29</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -35455,7 +35455,7 @@
       </c>
       <c r="R517" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>2024-02-02</v>
+        <v>2025-10-01</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -35513,7 +35513,7 @@
       </c>
       <c r="R518" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>2025-06-10</v>
+        <v>2025-08-25</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -35570,8 +35570,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R519" t="str">
-        <f ca="1" t="shared" ref="R519:R528" si="52">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2023-08-13</v>
+        <f ca="1" t="shared" si="51"/>
+        <v>2025-02-28</v>
       </c>
     </row>
     <row r="520" spans="1:18">
@@ -35624,8 +35624,8 @@
         <v>33</v>
       </c>
       <c r="R520" t="str">
-        <f ca="1" t="shared" si="52"/>
-        <v>2024-02-25</v>
+        <f ca="1" t="shared" si="51"/>
+        <v>2024-10-13</v>
       </c>
     </row>
     <row r="521" spans="1:18">
@@ -35681,8 +35681,8 @@
         <v>138</v>
       </c>
       <c r="R521" t="str">
-        <f ca="1" t="shared" si="52"/>
-        <v>2025-03-30</v>
+        <f ca="1" t="shared" si="51"/>
+        <v>2025-04-13</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -35735,8 +35735,8 @@
         <v>33</v>
       </c>
       <c r="R522" t="str">
-        <f ca="1" t="shared" si="52"/>
-        <v>2023-12-03</v>
+        <f ca="1" t="shared" si="51"/>
+        <v>2025-02-22</v>
       </c>
     </row>
     <row r="523" spans="1:18">
@@ -35789,8 +35789,8 @@
         <v>33</v>
       </c>
       <c r="R523" t="str">
-        <f ca="1" t="shared" si="52"/>
-        <v>2024-07-01</v>
+        <f ca="1" t="shared" ref="R523:R532" si="52">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2024-09-20</v>
       </c>
     </row>
     <row r="524" spans="1:18">
@@ -35847,7 +35847,7 @@
       </c>
       <c r="R524" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>2024-03-23</v>
+        <v>2024-09-25</v>
       </c>
     </row>
     <row r="525" spans="1:18">
@@ -35901,7 +35901,7 @@
       </c>
       <c r="R525" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>2023-09-23</v>
+        <v>2025-08-20</v>
       </c>
     </row>
     <row r="526" spans="1:18">
@@ -35959,7 +35959,7 @@
       </c>
       <c r="R526" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>2023-08-14</v>
+        <v>2024-10-23</v>
       </c>
     </row>
     <row r="527" spans="1:18">
@@ -36017,7 +36017,7 @@
       </c>
       <c r="R527" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>2023-10-14</v>
+        <v>2025-07-30</v>
       </c>
     </row>
     <row r="528" spans="1:18">
@@ -36074,7 +36074,7 @@
       </c>
       <c r="R528" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>2025-03-28</v>
+        <v>2024-09-03</v>
       </c>
     </row>
     <row r="529" spans="1:18">
@@ -36127,8 +36127,8 @@
         <v>33</v>
       </c>
       <c r="R529" t="str">
-        <f ca="1" t="shared" ref="R529:R538" si="53">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-01-27</v>
+        <f ca="1" t="shared" si="52"/>
+        <v>2024-09-28</v>
       </c>
     </row>
     <row r="530" spans="1:18">
@@ -36184,8 +36184,8 @@
         <v>138</v>
       </c>
       <c r="R530" t="str">
-        <f ca="1" t="shared" si="53"/>
-        <v>2024-06-21</v>
+        <f ca="1" t="shared" si="52"/>
+        <v>2024-08-07</v>
       </c>
     </row>
     <row r="531" spans="1:18">
@@ -36242,8 +36242,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R531" t="str">
-        <f ca="1" t="shared" si="53"/>
-        <v>2025-04-22</v>
+        <f ca="1" t="shared" si="52"/>
+        <v>2025-04-08</v>
       </c>
     </row>
     <row r="532" spans="1:18">
@@ -36300,8 +36300,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R532" t="str">
-        <f ca="1" t="shared" si="53"/>
-        <v>2024-08-21</v>
+        <f ca="1" t="shared" si="52"/>
+        <v>2024-10-01</v>
       </c>
     </row>
     <row r="533" spans="1:18">
@@ -36358,8 +36358,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R533" t="str">
-        <f ca="1" t="shared" si="53"/>
-        <v>2023-10-03</v>
+        <f ca="1" t="shared" ref="R533:R542" si="53">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2024-12-18</v>
       </c>
     </row>
     <row r="534" spans="1:18">
@@ -36417,7 +36417,7 @@
       </c>
       <c r="R534" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>2024-05-03</v>
+        <v>2024-11-05</v>
       </c>
     </row>
     <row r="535" spans="1:18">
@@ -36471,7 +36471,7 @@
       </c>
       <c r="R535" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>2023-08-25</v>
+        <v>2025-03-26</v>
       </c>
     </row>
     <row r="536" spans="1:18">
@@ -36529,7 +36529,7 @@
       </c>
       <c r="R536" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>2023-12-31</v>
+        <v>2024-08-17</v>
       </c>
     </row>
     <row r="537" spans="1:18">
@@ -36583,7 +36583,7 @@
       </c>
       <c r="R537" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>2024-06-23</v>
+        <v>2024-12-21</v>
       </c>
     </row>
     <row r="538" spans="1:18">
@@ -36640,7 +36640,7 @@
       </c>
       <c r="R538" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>2025-01-13</v>
+        <v>2025-06-25</v>
       </c>
     </row>
     <row r="539" spans="1:18">
@@ -36693,8 +36693,8 @@
         <v>33</v>
       </c>
       <c r="R539" t="str">
-        <f ca="1" t="shared" ref="R539:R548" si="54">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2023-10-11</v>
+        <f ca="1" t="shared" si="53"/>
+        <v>2025-05-14</v>
       </c>
     </row>
     <row r="540" spans="1:18">
@@ -36751,8 +36751,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R540" t="str">
-        <f ca="1" t="shared" si="54"/>
-        <v>2024-08-27</v>
+        <f ca="1" t="shared" si="53"/>
+        <v>2025-07-26</v>
       </c>
     </row>
     <row r="541" spans="1:18">
@@ -36809,8 +36809,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R541" t="str">
-        <f ca="1" t="shared" si="54"/>
-        <v>2024-02-25</v>
+        <f ca="1" t="shared" si="53"/>
+        <v>2025-04-22</v>
       </c>
     </row>
     <row r="542" spans="1:18">
@@ -36867,8 +36867,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R542" t="str">
-        <f ca="1" t="shared" si="54"/>
-        <v>2023-12-10</v>
+        <f ca="1" t="shared" si="53"/>
+        <v>2025-02-23</v>
       </c>
     </row>
     <row r="543" spans="1:18">
@@ -36921,8 +36921,8 @@
         <v>33</v>
       </c>
       <c r="R543" t="str">
-        <f ca="1" t="shared" si="54"/>
-        <v>2024-07-08</v>
+        <f ca="1" t="shared" ref="R543:R552" si="54">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2024-09-21</v>
       </c>
     </row>
     <row r="544" spans="1:18">
@@ -36980,7 +36980,7 @@
       </c>
       <c r="R544" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>2024-12-19</v>
+        <v>2025-09-11</v>
       </c>
     </row>
     <row r="545" spans="1:18">
@@ -37034,7 +37034,7 @@
       </c>
       <c r="R545" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>2024-06-29</v>
+        <v>2025-05-04</v>
       </c>
     </row>
     <row r="546" spans="1:18">
@@ -37092,7 +37092,7 @@
       </c>
       <c r="R546" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>2024-08-21</v>
+        <v>2025-02-14</v>
       </c>
     </row>
     <row r="547" spans="1:18">
@@ -37146,7 +37146,7 @@
       </c>
       <c r="R547" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>2023-11-05</v>
+        <v>2024-12-07</v>
       </c>
     </row>
     <row r="548" spans="1:18">
@@ -37204,7 +37204,7 @@
       </c>
       <c r="R548" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>2025-02-16</v>
+        <v>2025-05-14</v>
       </c>
     </row>
     <row r="549" spans="1:18">
@@ -37257,8 +37257,8 @@
         <v>33</v>
       </c>
       <c r="R549" t="str">
-        <f ca="1" t="shared" ref="R549:R558" si="55">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2025-05-09</v>
+        <f ca="1" t="shared" si="54"/>
+        <v>2024-10-03</v>
       </c>
     </row>
     <row r="550" spans="1:18">
@@ -37311,8 +37311,8 @@
         <v>33</v>
       </c>
       <c r="R550" t="str">
-        <f ca="1" t="shared" si="55"/>
-        <v>2024-02-18</v>
+        <f ca="1" t="shared" si="54"/>
+        <v>2025-07-31</v>
       </c>
     </row>
     <row r="551" spans="1:18">
@@ -37368,8 +37368,8 @@
         <v>138</v>
       </c>
       <c r="R551" t="str">
-        <f ca="1" t="shared" si="55"/>
-        <v>2024-04-02</v>
+        <f ca="1" t="shared" si="54"/>
+        <v>2025-03-23</v>
       </c>
     </row>
     <row r="552" spans="1:18">
@@ -37422,8 +37422,8 @@
         <v>33</v>
       </c>
       <c r="R552" t="str">
-        <f ca="1" t="shared" si="55"/>
-        <v>2023-12-20</v>
+        <f ca="1" t="shared" si="54"/>
+        <v>2025-04-20</v>
       </c>
     </row>
     <row r="553" spans="1:18">
@@ -37479,8 +37479,8 @@
         <v>138</v>
       </c>
       <c r="R553" t="str">
-        <f ca="1" t="shared" si="55"/>
-        <v>2025-04-17</v>
+        <f ca="1" t="shared" ref="R553:R562" si="55">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2024-09-17</v>
       </c>
     </row>
     <row r="554" spans="1:18">
@@ -37538,7 +37538,7 @@
       </c>
       <c r="R554" t="str">
         <f ca="1" t="shared" si="55"/>
-        <v>2024-07-15</v>
+        <v>2024-09-24</v>
       </c>
     </row>
     <row r="555" spans="1:18">
@@ -37596,7 +37596,7 @@
       </c>
       <c r="R555" t="str">
         <f ca="1" t="shared" si="55"/>
-        <v>2024-04-10</v>
+        <v>2025-03-23</v>
       </c>
     </row>
     <row r="556" spans="1:18">
@@ -37654,7 +37654,7 @@
       </c>
       <c r="R556" t="str">
         <f ca="1" t="shared" si="55"/>
-        <v>2024-03-08</v>
+        <v>2024-10-01</v>
       </c>
     </row>
     <row r="557" spans="1:18">
@@ -37712,7 +37712,7 @@
       </c>
       <c r="R557" t="str">
         <f ca="1" t="shared" si="55"/>
-        <v>2023-11-24</v>
+        <v>2025-04-06</v>
       </c>
     </row>
     <row r="558" spans="1:18">
@@ -37770,7 +37770,7 @@
       </c>
       <c r="R558" t="str">
         <f ca="1" t="shared" si="55"/>
-        <v>2025-04-23</v>
+        <v>2025-04-15</v>
       </c>
     </row>
     <row r="559" spans="1:18">
@@ -37827,8 +37827,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R559" t="str">
-        <f ca="1" t="shared" ref="R559:R568" si="56">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-05-27</v>
+        <f ca="1" t="shared" si="55"/>
+        <v>2025-07-10</v>
       </c>
     </row>
     <row r="560" spans="1:18">
@@ -37885,8 +37885,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R560" t="str">
-        <f ca="1" t="shared" si="56"/>
-        <v>2024-11-18</v>
+        <f ca="1" t="shared" si="55"/>
+        <v>2025-09-04</v>
       </c>
     </row>
     <row r="561" spans="1:18">
@@ -37943,8 +37943,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R561" t="str">
-        <f ca="1" t="shared" si="56"/>
-        <v>2023-11-10</v>
+        <f ca="1" t="shared" si="55"/>
+        <v>2024-10-12</v>
       </c>
     </row>
     <row r="562" spans="1:18">
@@ -38001,8 +38001,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R562" t="str">
-        <f ca="1" t="shared" si="56"/>
-        <v>2023-10-04</v>
+        <f ca="1" t="shared" si="55"/>
+        <v>2025-05-24</v>
       </c>
     </row>
     <row r="563" spans="1:18">
@@ -38059,8 +38059,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R563" t="str">
-        <f ca="1" t="shared" si="56"/>
-        <v>2023-08-31</v>
+        <f ca="1" t="shared" ref="R563:R572" si="56">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-07-29</v>
       </c>
     </row>
     <row r="564" spans="1:18">
@@ -38118,7 +38118,7 @@
       </c>
       <c r="R564" t="str">
         <f ca="1" t="shared" si="56"/>
-        <v>2024-05-06</v>
+        <v>2025-07-12</v>
       </c>
     </row>
     <row r="565" spans="1:18">
@@ -38176,7 +38176,7 @@
       </c>
       <c r="R565" t="str">
         <f ca="1" t="shared" si="56"/>
-        <v>2024-07-09</v>
+        <v>2025-07-22</v>
       </c>
     </row>
     <row r="566" spans="1:18">
@@ -38230,7 +38230,7 @@
       </c>
       <c r="R566" t="str">
         <f ca="1" t="shared" si="56"/>
-        <v>2025-05-17</v>
+        <v>2024-10-24</v>
       </c>
     </row>
     <row r="567" spans="1:18">
@@ -38288,7 +38288,7 @@
       </c>
       <c r="R567" t="str">
         <f ca="1" t="shared" si="56"/>
-        <v>2024-07-25</v>
+        <v>2024-08-06</v>
       </c>
     </row>
     <row r="568" spans="1:18">
@@ -38346,7 +38346,7 @@
       </c>
       <c r="R568" t="str">
         <f ca="1" t="shared" si="56"/>
-        <v>2024-11-07</v>
+        <v>2024-12-11</v>
       </c>
     </row>
     <row r="569" spans="1:18">
@@ -38403,8 +38403,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R569" t="str">
-        <f ca="1" t="shared" ref="R569:R578" si="57">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2023-11-27</v>
+        <f ca="1" t="shared" si="56"/>
+        <v>2024-11-13</v>
       </c>
     </row>
     <row r="570" spans="1:18">
@@ -38461,8 +38461,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R570" t="str">
-        <f ca="1" t="shared" si="57"/>
-        <v>2024-01-13</v>
+        <f ca="1" t="shared" si="56"/>
+        <v>2025-09-10</v>
       </c>
     </row>
     <row r="571" spans="1:18">
@@ -38515,8 +38515,8 @@
         <v>33</v>
       </c>
       <c r="R571" t="str">
-        <f ca="1" t="shared" si="57"/>
-        <v>2024-08-03</v>
+        <f ca="1" t="shared" si="56"/>
+        <v>2025-04-18</v>
       </c>
     </row>
     <row r="572" spans="1:18">
@@ -38573,8 +38573,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R572" t="str">
-        <f ca="1" t="shared" si="57"/>
-        <v>2023-09-14</v>
+        <f ca="1" t="shared" si="56"/>
+        <v>2025-04-13</v>
       </c>
     </row>
     <row r="573" spans="1:18">
@@ -38627,8 +38627,8 @@
         <v>33</v>
       </c>
       <c r="R573" t="str">
-        <f ca="1" t="shared" si="57"/>
-        <v>2025-02-27</v>
+        <f ca="1" t="shared" ref="R573:R582" si="57">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2024-10-10</v>
       </c>
     </row>
     <row r="574" spans="1:18">
@@ -38686,7 +38686,7 @@
       </c>
       <c r="R574" t="str">
         <f ca="1" t="shared" si="57"/>
-        <v>2023-10-30</v>
+        <v>2025-07-13</v>
       </c>
     </row>
     <row r="575" spans="1:18">
@@ -38744,7 +38744,7 @@
       </c>
       <c r="R575" t="str">
         <f ca="1" t="shared" si="57"/>
-        <v>2024-08-04</v>
+        <v>2024-10-23</v>
       </c>
     </row>
     <row r="576" spans="1:18">
@@ -38802,7 +38802,7 @@
       </c>
       <c r="R576" t="str">
         <f ca="1" t="shared" si="57"/>
-        <v>2023-08-13</v>
+        <v>2025-07-28</v>
       </c>
     </row>
     <row r="577" spans="1:18">
@@ -38860,7 +38860,7 @@
       </c>
       <c r="R577" t="str">
         <f ca="1" t="shared" si="57"/>
-        <v>2025-06-18</v>
+        <v>2025-07-03</v>
       </c>
     </row>
     <row r="578" spans="1:18">
@@ -38918,7 +38918,7 @@
       </c>
       <c r="R578" t="str">
         <f ca="1" t="shared" si="57"/>
-        <v>2023-09-21</v>
+        <v>2025-05-11</v>
       </c>
     </row>
     <row r="579" spans="1:18">
@@ -38971,8 +38971,8 @@
         <v>33</v>
       </c>
       <c r="R579" t="str">
-        <f ca="1" t="shared" ref="R579:R588" si="58">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-10-26</v>
+        <f ca="1" t="shared" si="57"/>
+        <v>2025-05-12</v>
       </c>
     </row>
     <row r="580" spans="1:18">
@@ -39028,8 +39028,8 @@
         <v>138</v>
       </c>
       <c r="R580" t="str">
-        <f ca="1" t="shared" si="58"/>
-        <v>2023-09-23</v>
+        <f ca="1" t="shared" si="57"/>
+        <v>2025-09-05</v>
       </c>
     </row>
     <row r="581" spans="1:18">
@@ -39086,8 +39086,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R581" t="str">
-        <f ca="1" t="shared" si="58"/>
-        <v>2025-04-12</v>
+        <f ca="1" t="shared" si="57"/>
+        <v>2024-12-31</v>
       </c>
     </row>
     <row r="582" spans="1:18">
@@ -39141,8 +39141,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R582" t="str">
-        <f ca="1" t="shared" si="58"/>
-        <v>2024-01-25</v>
+        <f ca="1" t="shared" si="57"/>
+        <v>2025-03-16</v>
       </c>
     </row>
     <row r="583" spans="1:18">
@@ -39199,8 +39199,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R583" t="str">
-        <f ca="1" t="shared" si="58"/>
-        <v>2025-03-15</v>
+        <f ca="1" t="shared" ref="R583:R592" si="58">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2024-09-30</v>
       </c>
     </row>
     <row r="584" spans="1:18">
@@ -39257,7 +39257,7 @@
       </c>
       <c r="R584" t="str">
         <f ca="1" t="shared" si="58"/>
-        <v>2023-11-27</v>
+        <v>2024-09-20</v>
       </c>
     </row>
     <row r="585" spans="1:18">
@@ -39315,7 +39315,7 @@
       </c>
       <c r="R585" t="str">
         <f ca="1" t="shared" si="58"/>
-        <v>2024-07-01</v>
+        <v>2025-07-07</v>
       </c>
     </row>
     <row r="586" spans="1:18">
@@ -39373,7 +39373,7 @@
       </c>
       <c r="R586" t="str">
         <f ca="1" t="shared" si="58"/>
-        <v>2023-10-20</v>
+        <v>2024-09-22</v>
       </c>
     </row>
     <row r="587" spans="1:18">
@@ -39431,7 +39431,7 @@
       </c>
       <c r="R587" t="str">
         <f ca="1" t="shared" si="58"/>
-        <v>2024-01-15</v>
+        <v>2025-02-22</v>
       </c>
     </row>
     <row r="588" spans="1:18">
@@ -39485,7 +39485,7 @@
       </c>
       <c r="R588" t="str">
         <f ca="1" t="shared" si="58"/>
-        <v>2025-05-26</v>
+        <v>2025-06-25</v>
       </c>
     </row>
     <row r="589" spans="1:18">
@@ -39542,8 +39542,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R589" t="str">
-        <f ca="1" t="shared" ref="R589:R598" si="59">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2023-10-01</v>
+        <f ca="1" t="shared" si="58"/>
+        <v>2025-07-23</v>
       </c>
     </row>
     <row r="590" spans="1:18">
@@ -39596,8 +39596,8 @@
         <v>33</v>
       </c>
       <c r="R590" t="str">
-        <f ca="1" t="shared" si="59"/>
-        <v>2024-12-31</v>
+        <f ca="1" t="shared" si="58"/>
+        <v>2025-02-28</v>
       </c>
     </row>
     <row r="591" spans="1:18">
@@ -39654,8 +39654,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R591" t="str">
-        <f ca="1" t="shared" si="59"/>
-        <v>2024-09-30</v>
+        <f ca="1" t="shared" si="58"/>
+        <v>2025-03-08</v>
       </c>
     </row>
     <row r="592" spans="1:18">
@@ -39712,8 +39712,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R592" t="str">
-        <f ca="1" t="shared" si="59"/>
-        <v>2024-10-22</v>
+        <f ca="1" t="shared" si="58"/>
+        <v>2025-09-08</v>
       </c>
     </row>
     <row r="593" spans="1:18">
@@ -39770,8 +39770,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R593" t="str">
-        <f ca="1" t="shared" si="59"/>
-        <v>2024-03-09</v>
+        <f ca="1" t="shared" ref="R593:R602" si="59">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-04-11</v>
       </c>
     </row>
     <row r="594" spans="1:18">
@@ -39825,7 +39825,7 @@
       </c>
       <c r="R594" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v>2025-04-07</v>
+        <v>2025-06-18</v>
       </c>
     </row>
     <row r="595" spans="1:18">
@@ -39880,7 +39880,7 @@
       </c>
       <c r="R595" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v>2025-02-20</v>
+        <v>2024-11-21</v>
       </c>
     </row>
     <row r="596" spans="1:18">
@@ -39938,7 +39938,7 @@
       </c>
       <c r="R596" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v>2025-05-24</v>
+        <v>2025-03-08</v>
       </c>
     </row>
     <row r="597" spans="1:18">
@@ -39992,7 +39992,7 @@
       </c>
       <c r="R597" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v>2025-02-08</v>
+        <v>2025-09-07</v>
       </c>
     </row>
     <row r="598" spans="1:18">
@@ -40049,7 +40049,7 @@
       </c>
       <c r="R598" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v>2024-08-25</v>
+        <v>2025-05-04</v>
       </c>
     </row>
     <row r="599" spans="1:18">
@@ -40102,8 +40102,8 @@
         <v>33</v>
       </c>
       <c r="R599" t="str">
-        <f ca="1" t="shared" ref="R599:R608" si="60">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2023-11-14</v>
+        <f ca="1" t="shared" si="59"/>
+        <v>2025-05-22</v>
       </c>
     </row>
     <row r="600" spans="1:18">
@@ -40156,8 +40156,8 @@
         <v>33</v>
       </c>
       <c r="R600" t="str">
-        <f ca="1" t="shared" si="60"/>
-        <v>2023-11-11</v>
+        <f ca="1" t="shared" si="59"/>
+        <v>2024-09-02</v>
       </c>
     </row>
     <row r="601" spans="1:18">
@@ -40210,8 +40210,8 @@
         <v>33</v>
       </c>
       <c r="R601" t="str">
-        <f ca="1" t="shared" si="60"/>
-        <v>2025-02-15</v>
+        <f ca="1" t="shared" si="59"/>
+        <v>2025-09-30</v>
       </c>
     </row>
     <row r="602" spans="1:18">
@@ -40268,8 +40268,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R602" t="str">
-        <f ca="1" t="shared" si="60"/>
-        <v>2024-11-01</v>
+        <f ca="1" t="shared" si="59"/>
+        <v>2025-10-02</v>
       </c>
     </row>
     <row r="603" spans="1:18">
@@ -40325,8 +40325,8 @@
         <v>138</v>
       </c>
       <c r="R603" t="str">
-        <f ca="1" t="shared" si="60"/>
-        <v>2024-10-28</v>
+        <f ca="1" t="shared" ref="R603:R612" si="60">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-09-13</v>
       </c>
     </row>
     <row r="604" spans="1:18">
@@ -40384,7 +40384,7 @@
       </c>
       <c r="R604" t="str">
         <f ca="1" t="shared" si="60"/>
-        <v>2024-10-13</v>
+        <v>2024-08-13</v>
       </c>
     </row>
     <row r="605" spans="1:18">
@@ -40438,7 +40438,7 @@
       </c>
       <c r="R605" t="str">
         <f ca="1" t="shared" si="60"/>
-        <v>2024-06-08</v>
+        <v>2025-09-09</v>
       </c>
     </row>
     <row r="606" spans="1:18">
@@ -40495,7 +40495,7 @@
       </c>
       <c r="R606" t="str">
         <f ca="1" t="shared" si="60"/>
-        <v>2023-09-05</v>
+        <v>2025-02-09</v>
       </c>
     </row>
     <row r="607" spans="1:18">
@@ -40553,7 +40553,7 @@
       </c>
       <c r="R607" t="str">
         <f ca="1" t="shared" si="60"/>
-        <v>2024-08-15</v>
+        <v>2025-01-20</v>
       </c>
     </row>
     <row r="608" spans="1:18">
@@ -40607,7 +40607,7 @@
       </c>
       <c r="R608" t="str">
         <f ca="1" t="shared" si="60"/>
-        <v>2024-04-04</v>
+        <v>2025-08-17</v>
       </c>
     </row>
     <row r="609" spans="1:18">
@@ -40664,8 +40664,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R609" t="str">
-        <f ca="1" t="shared" ref="R609:R618" si="61">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-11-13</v>
+        <f ca="1" t="shared" si="60"/>
+        <v>2025-04-27</v>
       </c>
     </row>
     <row r="610" spans="1:18">
@@ -40722,8 +40722,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R610" t="str">
-        <f ca="1" t="shared" si="61"/>
-        <v>2024-10-24</v>
+        <f ca="1" t="shared" si="60"/>
+        <v>2024-09-19</v>
       </c>
     </row>
     <row r="611" spans="1:18">
@@ -40777,8 +40777,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R611" t="str">
-        <f ca="1" t="shared" si="61"/>
-        <v>2024-06-22</v>
+        <f ca="1" t="shared" si="60"/>
+        <v>2025-09-02</v>
       </c>
     </row>
     <row r="612" spans="1:18">
@@ -40831,8 +40831,8 @@
         <v>33</v>
       </c>
       <c r="R612" t="str">
-        <f ca="1" t="shared" si="61"/>
-        <v>2024-11-20</v>
+        <f ca="1" t="shared" si="60"/>
+        <v>2025-07-20</v>
       </c>
     </row>
     <row r="613" spans="1:18">
@@ -40889,8 +40889,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R613" t="str">
-        <f ca="1" t="shared" si="61"/>
-        <v>2024-05-13</v>
+        <f ca="1" t="shared" ref="R613:R622" si="61">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2024-10-23</v>
       </c>
     </row>
     <row r="614" spans="1:18">
@@ -40944,7 +40944,7 @@
       </c>
       <c r="R614" t="str">
         <f ca="1" t="shared" si="61"/>
-        <v>2024-03-18</v>
+        <v>2025-06-25</v>
       </c>
     </row>
     <row r="615" spans="1:18">
@@ -41001,7 +41001,7 @@
       </c>
       <c r="R615" t="str">
         <f ca="1" t="shared" si="61"/>
-        <v>2025-04-03</v>
+        <v>2025-03-09</v>
       </c>
     </row>
     <row r="616" spans="1:18">
@@ -41059,7 +41059,7 @@
       </c>
       <c r="R616" t="str">
         <f ca="1" t="shared" si="61"/>
-        <v>2024-05-28</v>
+        <v>2024-08-12</v>
       </c>
     </row>
     <row r="617" spans="1:18">
@@ -41117,7 +41117,7 @@
       </c>
       <c r="R617" t="str">
         <f ca="1" t="shared" si="61"/>
-        <v>2025-04-03</v>
+        <v>2024-09-10</v>
       </c>
     </row>
     <row r="618" spans="1:18">
@@ -41175,7 +41175,7 @@
       </c>
       <c r="R618" t="str">
         <f ca="1" t="shared" si="61"/>
-        <v>2025-01-31</v>
+        <v>2024-11-08</v>
       </c>
     </row>
     <row r="619" spans="1:18">
@@ -41231,8 +41231,8 @@
         <v>138</v>
       </c>
       <c r="R619" t="str">
-        <f ca="1" t="shared" ref="R619:R628" si="62">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2025-01-13</v>
+        <f ca="1" t="shared" si="61"/>
+        <v>2024-10-14</v>
       </c>
     </row>
     <row r="620" spans="1:18">
@@ -41288,8 +41288,8 @@
         <v>138</v>
       </c>
       <c r="R620" t="str">
-        <f ca="1" t="shared" si="62"/>
-        <v>2025-02-23</v>
+        <f ca="1" t="shared" si="61"/>
+        <v>2024-09-18</v>
       </c>
     </row>
     <row r="621" spans="1:18">
@@ -41345,8 +41345,8 @@
         <v>138</v>
       </c>
       <c r="R621" t="str">
-        <f ca="1" t="shared" si="62"/>
-        <v>2025-05-22</v>
+        <f ca="1" t="shared" si="61"/>
+        <v>2025-08-24</v>
       </c>
     </row>
     <row r="622" spans="1:18">
@@ -41402,8 +41402,8 @@
         <v>138</v>
       </c>
       <c r="R622" t="str">
-        <f ca="1" t="shared" si="62"/>
-        <v>2024-04-11</v>
+        <f ca="1" t="shared" si="61"/>
+        <v>2024-11-18</v>
       </c>
     </row>
     <row r="623" spans="1:18">
@@ -41456,8 +41456,8 @@
         <v>33</v>
       </c>
       <c r="R623" t="str">
-        <f ca="1" t="shared" si="62"/>
-        <v>2024-06-17</v>
+        <f ca="1" t="shared" ref="R623:R632" si="62">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-08-20</v>
       </c>
     </row>
     <row r="624" spans="1:18">
@@ -41515,7 +41515,7 @@
       </c>
       <c r="R624" t="str">
         <f ca="1" t="shared" si="62"/>
-        <v>2024-09-14</v>
+        <v>2025-07-04</v>
       </c>
     </row>
     <row r="625" spans="1:18">
@@ -41569,7 +41569,7 @@
       </c>
       <c r="R625" t="str">
         <f ca="1" t="shared" si="62"/>
-        <v>2024-04-03</v>
+        <v>2025-04-25</v>
       </c>
     </row>
     <row r="626" spans="1:18">
@@ -41627,7 +41627,7 @@
       </c>
       <c r="R626" t="str">
         <f ca="1" t="shared" si="62"/>
-        <v>2025-02-07</v>
+        <v>2025-01-26</v>
       </c>
     </row>
     <row r="627" spans="1:18">
@@ -41685,7 +41685,7 @@
       </c>
       <c r="R627" t="str">
         <f ca="1" t="shared" si="62"/>
-        <v>2023-10-21</v>
+        <v>2025-01-29</v>
       </c>
     </row>
     <row r="628" spans="1:18">
@@ -41740,7 +41740,7 @@
       </c>
       <c r="R628" t="str">
         <f ca="1" t="shared" si="62"/>
-        <v>2025-01-10</v>
+        <v>2025-09-01</v>
       </c>
     </row>
     <row r="629" spans="1:18">
@@ -41797,8 +41797,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R629" t="str">
-        <f ca="1" t="shared" ref="R629:R638" si="63">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-08-19</v>
+        <f ca="1" t="shared" si="62"/>
+        <v>2024-08-14</v>
       </c>
     </row>
     <row r="630" spans="1:18">
@@ -41855,8 +41855,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R630" t="str">
-        <f ca="1" t="shared" si="63"/>
-        <v>2023-08-24</v>
+        <f ca="1" t="shared" si="62"/>
+        <v>2024-11-06</v>
       </c>
     </row>
     <row r="631" spans="1:18">
@@ -41913,8 +41913,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R631" t="str">
-        <f ca="1" t="shared" si="63"/>
-        <v>2024-10-21</v>
+        <f ca="1" t="shared" si="62"/>
+        <v>2025-05-25</v>
       </c>
     </row>
     <row r="632" spans="1:18">
@@ -41967,8 +41967,8 @@
         <v>33</v>
       </c>
       <c r="R632" t="str">
-        <f ca="1" t="shared" si="63"/>
-        <v>2024-03-06</v>
+        <f ca="1" t="shared" si="62"/>
+        <v>2025-05-04</v>
       </c>
     </row>
     <row r="633" spans="1:18">
@@ -42025,8 +42025,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R633" t="str">
-        <f ca="1" t="shared" si="63"/>
-        <v>2024-02-22</v>
+        <f ca="1" t="shared" ref="R633:R642" si="63">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-08-26</v>
       </c>
     </row>
     <row r="634" spans="1:18">
@@ -42081,7 +42081,7 @@
       </c>
       <c r="R634" t="str">
         <f ca="1" t="shared" si="63"/>
-        <v>2024-09-09</v>
+        <v>2024-12-31</v>
       </c>
     </row>
     <row r="635" spans="1:18">
@@ -42136,7 +42136,7 @@
       </c>
       <c r="R635" t="str">
         <f ca="1" t="shared" si="63"/>
-        <v>2023-10-07</v>
+        <v>2024-08-28</v>
       </c>
     </row>
     <row r="636" spans="1:18">
@@ -42194,7 +42194,7 @@
       </c>
       <c r="R636" t="str">
         <f ca="1" t="shared" si="63"/>
-        <v>2024-05-09</v>
+        <v>2025-06-10</v>
       </c>
     </row>
     <row r="637" spans="1:18">
@@ -42252,7 +42252,7 @@
       </c>
       <c r="R637" t="str">
         <f ca="1" t="shared" si="63"/>
-        <v>2024-03-07</v>
+        <v>2025-04-06</v>
       </c>
     </row>
     <row r="638" spans="1:18">
@@ -42310,7 +42310,7 @@
       </c>
       <c r="R638" t="str">
         <f ca="1" t="shared" si="63"/>
-        <v>2025-05-20</v>
+        <v>2025-03-08</v>
       </c>
     </row>
     <row r="639" spans="1:18">
@@ -42363,8 +42363,8 @@
         <v>33</v>
       </c>
       <c r="R639" t="str">
-        <f ca="1" t="shared" ref="R639:R648" si="64">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2023-11-29</v>
+        <f ca="1" t="shared" si="63"/>
+        <v>2024-12-04</v>
       </c>
     </row>
     <row r="640" spans="1:18">
@@ -42418,8 +42418,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R640" t="str">
-        <f ca="1" t="shared" si="64"/>
-        <v>2024-04-27</v>
+        <f ca="1" t="shared" si="63"/>
+        <v>2025-07-26</v>
       </c>
     </row>
     <row r="641" spans="1:18">
@@ -42476,8 +42476,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R641" t="str">
-        <f ca="1" t="shared" si="64"/>
-        <v>2025-02-23</v>
+        <f ca="1" t="shared" si="63"/>
+        <v>2025-08-30</v>
       </c>
     </row>
     <row r="642" spans="1:18">
@@ -42530,8 +42530,8 @@
         <v>33</v>
       </c>
       <c r="R642" t="str">
-        <f ca="1" t="shared" si="64"/>
-        <v>2024-11-25</v>
+        <f ca="1" t="shared" si="63"/>
+        <v>2025-03-12</v>
       </c>
     </row>
     <row r="643" spans="1:18">
@@ -42588,8 +42588,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R643" t="str">
-        <f ca="1" t="shared" si="64"/>
-        <v>2025-04-15</v>
+        <f ca="1" t="shared" ref="R643:R652" si="64">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-09-21</v>
       </c>
     </row>
     <row r="644" spans="1:18">
@@ -42647,7 +42647,7 @@
       </c>
       <c r="R644" t="str">
         <f ca="1" t="shared" si="64"/>
-        <v>2025-04-24</v>
+        <v>2025-02-16</v>
       </c>
     </row>
     <row r="645" spans="1:18">
@@ -42701,7 +42701,7 @@
       </c>
       <c r="R645" t="str">
         <f ca="1" t="shared" si="64"/>
-        <v>2024-01-03</v>
+        <v>2024-08-08</v>
       </c>
     </row>
     <row r="646" spans="1:18">
@@ -42759,7 +42759,7 @@
       </c>
       <c r="R646" t="str">
         <f ca="1" t="shared" si="64"/>
-        <v>2024-04-02</v>
+        <v>2025-06-02</v>
       </c>
     </row>
     <row r="647" spans="1:18">
@@ -42816,7 +42816,7 @@
       </c>
       <c r="R647" t="str">
         <f ca="1" t="shared" si="64"/>
-        <v>2024-04-17</v>
+        <v>2025-05-27</v>
       </c>
     </row>
     <row r="648" spans="1:18">
@@ -42870,7 +42870,7 @@
       </c>
       <c r="R648" t="str">
         <f ca="1" t="shared" si="64"/>
-        <v>2024-11-11</v>
+        <v>2025-03-14</v>
       </c>
     </row>
     <row r="649" spans="1:18">
@@ -42927,8 +42927,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R649" t="str">
-        <f ca="1" t="shared" ref="R649:R658" si="65">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2025-05-27</v>
+        <f ca="1" t="shared" si="64"/>
+        <v>2025-04-02</v>
       </c>
     </row>
     <row r="650" spans="1:18">
@@ -42985,8 +42985,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R650" t="str">
-        <f ca="1" t="shared" si="65"/>
-        <v>2024-04-11</v>
+        <f ca="1" t="shared" si="64"/>
+        <v>2025-03-27</v>
       </c>
     </row>
     <row r="651" spans="1:18">
@@ -43043,8 +43043,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R651" t="str">
-        <f ca="1" t="shared" si="65"/>
-        <v>2024-12-06</v>
+        <f ca="1" t="shared" si="64"/>
+        <v>2025-01-12</v>
       </c>
     </row>
     <row r="652" spans="1:18">
@@ -43097,8 +43097,8 @@
         <v>33</v>
       </c>
       <c r="R652" t="str">
-        <f ca="1" t="shared" si="65"/>
-        <v>2024-07-28</v>
+        <f ca="1" t="shared" si="64"/>
+        <v>2025-09-14</v>
       </c>
     </row>
     <row r="653" spans="1:18">
@@ -43154,8 +43154,8 @@
         <v>138</v>
       </c>
       <c r="R653" t="str">
-        <f ca="1" t="shared" si="65"/>
-        <v>2023-08-23</v>
+        <f ca="1" t="shared" ref="R653:R662" si="65">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-09-06</v>
       </c>
     </row>
     <row r="654" spans="1:18">
@@ -43209,7 +43209,7 @@
       </c>
       <c r="R654" t="str">
         <f ca="1" t="shared" si="65"/>
-        <v>2023-11-27</v>
+        <v>2025-01-20</v>
       </c>
     </row>
     <row r="655" spans="1:18">
@@ -43266,7 +43266,7 @@
       </c>
       <c r="R655" t="str">
         <f ca="1" t="shared" si="65"/>
-        <v>2024-04-18</v>
+        <v>2025-03-31</v>
       </c>
     </row>
     <row r="656" spans="1:18">
@@ -43324,7 +43324,7 @@
       </c>
       <c r="R656" t="str">
         <f ca="1" t="shared" si="65"/>
-        <v>2024-07-19</v>
+        <v>2024-09-16</v>
       </c>
     </row>
     <row r="657" spans="1:18">
@@ -43382,7 +43382,7 @@
       </c>
       <c r="R657" t="str">
         <f ca="1" t="shared" si="65"/>
-        <v>2024-04-29</v>
+        <v>2025-06-29</v>
       </c>
     </row>
     <row r="658" spans="1:18">
@@ -43440,7 +43440,7 @@
       </c>
       <c r="R658" t="str">
         <f ca="1" t="shared" si="65"/>
-        <v>2024-06-20</v>
+        <v>2024-12-20</v>
       </c>
     </row>
     <row r="659" spans="1:18">
@@ -43494,8 +43494,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R659" t="str">
-        <f ca="1" t="shared" ref="R659:R668" si="66">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2023-11-21</v>
+        <f ca="1" t="shared" si="65"/>
+        <v>2025-02-09</v>
       </c>
     </row>
     <row r="660" spans="1:18">
@@ -43548,8 +43548,8 @@
         <v>33</v>
       </c>
       <c r="R660" t="str">
-        <f ca="1" t="shared" si="66"/>
-        <v>2023-08-26</v>
+        <f ca="1" t="shared" si="65"/>
+        <v>2025-07-26</v>
       </c>
     </row>
     <row r="661" spans="1:18">
@@ -43602,8 +43602,8 @@
         <v>33</v>
       </c>
       <c r="R661" t="str">
-        <f ca="1" t="shared" si="66"/>
-        <v>2023-12-11</v>
+        <f ca="1" t="shared" si="65"/>
+        <v>2024-10-04</v>
       </c>
     </row>
     <row r="662" spans="1:18">
@@ -43660,8 +43660,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R662" t="str">
-        <f ca="1" t="shared" si="66"/>
-        <v>2025-06-10</v>
+        <f ca="1" t="shared" si="65"/>
+        <v>2024-08-16</v>
       </c>
     </row>
     <row r="663" spans="1:18">
@@ -43718,8 +43718,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R663" t="str">
-        <f ca="1" t="shared" si="66"/>
-        <v>2023-11-09</v>
+        <f ca="1" t="shared" ref="R663:R672" si="66">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-07-06</v>
       </c>
     </row>
     <row r="664" spans="1:18">
@@ -43773,7 +43773,7 @@
       </c>
       <c r="R664" t="str">
         <f ca="1" t="shared" si="66"/>
-        <v>2024-09-29</v>
+        <v>2025-05-06</v>
       </c>
     </row>
     <row r="665" spans="1:18">
@@ -43831,7 +43831,7 @@
       </c>
       <c r="R665" t="str">
         <f ca="1" t="shared" si="66"/>
-        <v>2024-05-19</v>
+        <v>2024-08-21</v>
       </c>
     </row>
     <row r="666" spans="1:18">
@@ -43885,7 +43885,7 @@
       </c>
       <c r="R666" t="str">
         <f ca="1" t="shared" si="66"/>
-        <v>2025-03-20</v>
+        <v>2025-09-19</v>
       </c>
     </row>
     <row r="667" spans="1:18">
@@ -43943,7 +43943,7 @@
       </c>
       <c r="R667" t="str">
         <f ca="1" t="shared" si="66"/>
-        <v>2023-09-20</v>
+        <v>2025-09-14</v>
       </c>
     </row>
     <row r="668" spans="1:18">
@@ -43997,7 +43997,7 @@
       </c>
       <c r="R668" t="str">
         <f ca="1" t="shared" si="66"/>
-        <v>2025-04-09</v>
+        <v>2025-03-26</v>
       </c>
     </row>
     <row r="669" spans="1:18">
@@ -44050,8 +44050,8 @@
         <v>33</v>
       </c>
       <c r="R669" t="str">
-        <f ca="1" t="shared" ref="R669:R678" si="67">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-07-13</v>
+        <f ca="1" t="shared" si="66"/>
+        <v>2025-02-11</v>
       </c>
     </row>
     <row r="670" spans="1:18">
@@ -44104,8 +44104,8 @@
         <v>33</v>
       </c>
       <c r="R670" t="str">
-        <f ca="1" t="shared" si="67"/>
-        <v>2025-02-18</v>
+        <f ca="1" t="shared" si="66"/>
+        <v>2025-02-22</v>
       </c>
     </row>
     <row r="671" spans="1:18">
@@ -44162,8 +44162,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R671" t="str">
-        <f ca="1" t="shared" si="67"/>
-        <v>2025-03-12</v>
+        <f ca="1" t="shared" si="66"/>
+        <v>2025-01-01</v>
       </c>
     </row>
     <row r="672" spans="1:18">
@@ -44220,8 +44220,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R672" t="str">
-        <f ca="1" t="shared" si="67"/>
-        <v>2024-09-06</v>
+        <f ca="1" t="shared" si="66"/>
+        <v>2024-08-28</v>
       </c>
     </row>
     <row r="673" spans="1:18">
@@ -44278,8 +44278,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R673" t="str">
-        <f ca="1" t="shared" si="67"/>
-        <v>2023-08-20</v>
+        <f ca="1" t="shared" ref="R673:R682" si="67">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-01-07</v>
       </c>
     </row>
     <row r="674" spans="1:18">
@@ -44337,7 +44337,7 @@
       </c>
       <c r="R674" t="str">
         <f ca="1" t="shared" si="67"/>
-        <v>2023-11-15</v>
+        <v>2025-09-21</v>
       </c>
     </row>
     <row r="675" spans="1:18">
@@ -44395,7 +44395,7 @@
       </c>
       <c r="R675" t="str">
         <f ca="1" t="shared" si="67"/>
-        <v>2023-08-08</v>
+        <v>2024-10-04</v>
       </c>
     </row>
     <row r="676" spans="1:18">
@@ -44453,7 +44453,7 @@
       </c>
       <c r="R676" t="str">
         <f ca="1" t="shared" si="67"/>
-        <v>2024-07-31</v>
+        <v>2025-04-16</v>
       </c>
     </row>
     <row r="677" spans="1:18">
@@ -44507,7 +44507,7 @@
       </c>
       <c r="R677" t="str">
         <f ca="1" t="shared" si="67"/>
-        <v>2023-09-10</v>
+        <v>2024-10-22</v>
       </c>
     </row>
     <row r="678" spans="1:18">
@@ -44565,7 +44565,7 @@
       </c>
       <c r="R678" t="str">
         <f ca="1" t="shared" si="67"/>
-        <v>2024-04-25</v>
+        <v>2025-07-01</v>
       </c>
     </row>
     <row r="679" spans="1:18">
@@ -44622,8 +44622,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R679" t="str">
-        <f ca="1" t="shared" ref="R679:R688" si="68">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-07-23</v>
+        <f ca="1" t="shared" si="67"/>
+        <v>2025-03-20</v>
       </c>
     </row>
     <row r="680" spans="1:18">
@@ -44676,8 +44676,8 @@
         <v>33</v>
       </c>
       <c r="R680" t="str">
-        <f ca="1" t="shared" si="68"/>
-        <v>2023-11-27</v>
+        <f ca="1" t="shared" si="67"/>
+        <v>2025-09-14</v>
       </c>
     </row>
     <row r="681" spans="1:18">
@@ -44734,8 +44734,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R681" t="str">
-        <f ca="1" t="shared" si="68"/>
-        <v>2024-10-09</v>
+        <f ca="1" t="shared" si="67"/>
+        <v>2025-03-08</v>
       </c>
     </row>
     <row r="682" spans="1:18">
@@ -44791,8 +44791,8 @@
         <v>138</v>
       </c>
       <c r="R682" t="str">
-        <f ca="1" t="shared" si="68"/>
-        <v>2025-04-29</v>
+        <f ca="1" t="shared" si="67"/>
+        <v>2024-08-11</v>
       </c>
     </row>
     <row r="683" spans="1:18">
@@ -44845,8 +44845,8 @@
         <v>33</v>
       </c>
       <c r="R683" t="str">
-        <f ca="1" t="shared" si="68"/>
-        <v>2024-08-26</v>
+        <f ca="1" t="shared" ref="R683:R692" si="68">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-08-02</v>
       </c>
     </row>
     <row r="684" spans="1:18">
@@ -44904,7 +44904,7 @@
       </c>
       <c r="R684" t="str">
         <f ca="1" t="shared" si="68"/>
-        <v>2024-09-28</v>
+        <v>2024-08-09</v>
       </c>
     </row>
     <row r="685" spans="1:18">
@@ -44961,7 +44961,7 @@
       </c>
       <c r="R685" t="str">
         <f ca="1" t="shared" si="68"/>
-        <v>2024-11-05</v>
+        <v>2024-10-09</v>
       </c>
     </row>
     <row r="686" spans="1:18">
@@ -45019,7 +45019,7 @@
       </c>
       <c r="R686" t="str">
         <f ca="1" t="shared" si="68"/>
-        <v>2023-12-10</v>
+        <v>2024-09-10</v>
       </c>
     </row>
     <row r="687" spans="1:18">
@@ -45077,7 +45077,7 @@
       </c>
       <c r="R687" t="str">
         <f ca="1" t="shared" si="68"/>
-        <v>2024-01-17</v>
+        <v>2025-05-08</v>
       </c>
     </row>
     <row r="688" spans="1:18">
@@ -45131,7 +45131,7 @@
       </c>
       <c r="R688" t="str">
         <f ca="1" t="shared" si="68"/>
-        <v>2023-09-25</v>
+        <v>2024-12-06</v>
       </c>
     </row>
     <row r="689" spans="1:18">
@@ -45184,8 +45184,8 @@
         <v>33</v>
       </c>
       <c r="R689" t="str">
-        <f ca="1" t="shared" ref="R689:R698" si="69">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-12-25</v>
+        <f ca="1" t="shared" si="68"/>
+        <v>2024-09-15</v>
       </c>
     </row>
     <row r="690" spans="1:18">
@@ -45238,8 +45238,8 @@
         <v>33</v>
       </c>
       <c r="R690" t="str">
-        <f ca="1" t="shared" si="69"/>
-        <v>2025-03-19</v>
+        <f ca="1" t="shared" si="68"/>
+        <v>2024-12-10</v>
       </c>
     </row>
     <row r="691" spans="1:18">
@@ -45292,8 +45292,8 @@
         <v>33</v>
       </c>
       <c r="R691" t="str">
-        <f ca="1" t="shared" si="69"/>
-        <v>2023-10-15</v>
+        <f ca="1" t="shared" si="68"/>
+        <v>2024-10-12</v>
       </c>
     </row>
     <row r="692" spans="1:18">
@@ -45350,8 +45350,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R692" t="str">
-        <f ca="1" t="shared" si="69"/>
-        <v>2025-05-26</v>
+        <f ca="1" t="shared" si="68"/>
+        <v>2024-11-25</v>
       </c>
     </row>
     <row r="693" spans="1:18">
@@ -45408,8 +45408,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R693" t="str">
-        <f ca="1" t="shared" si="69"/>
-        <v>2024-01-06</v>
+        <f ca="1" t="shared" ref="R693:R702" si="69">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-01-25</v>
       </c>
     </row>
     <row r="694" spans="1:18">
@@ -45467,7 +45467,7 @@
       </c>
       <c r="R694" t="str">
         <f ca="1" t="shared" si="69"/>
-        <v>2025-04-05</v>
+        <v>2025-02-25</v>
       </c>
     </row>
     <row r="695" spans="1:18">
@@ -45525,7 +45525,7 @@
       </c>
       <c r="R695" t="str">
         <f ca="1" t="shared" si="69"/>
-        <v>2023-08-15</v>
+        <v>2024-08-19</v>
       </c>
     </row>
     <row r="696" spans="1:18">
@@ -45579,7 +45579,7 @@
       </c>
       <c r="R696" t="str">
         <f ca="1" t="shared" si="69"/>
-        <v>2024-07-27</v>
+        <v>2025-05-27</v>
       </c>
     </row>
     <row r="697" spans="1:18">
@@ -45636,7 +45636,7 @@
       </c>
       <c r="R697" t="str">
         <f ca="1" t="shared" si="69"/>
-        <v>2024-12-19</v>
+        <v>2024-11-21</v>
       </c>
     </row>
     <row r="698" spans="1:18">
@@ -45694,7 +45694,7 @@
       </c>
       <c r="R698" t="str">
         <f ca="1" t="shared" si="69"/>
-        <v>2023-10-16</v>
+        <v>2025-06-05</v>
       </c>
     </row>
     <row r="699" spans="1:18">
@@ -45751,8 +45751,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R699" t="str">
-        <f ca="1" t="shared" ref="R699:R710" si="70">TEXT(RANDBETWEEN(DATE(2023,8,1),DATE(2025,6,18)),"yyyy-mm-dd")</f>
-        <v>2024-10-09</v>
+        <f ca="1" t="shared" si="69"/>
+        <v>2024-08-02</v>
       </c>
     </row>
     <row r="700" spans="1:18">
@@ -45809,8 +45809,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R700" t="str">
-        <f ca="1" t="shared" si="70"/>
-        <v>2024-04-21</v>
+        <f ca="1" t="shared" si="69"/>
+        <v>2024-12-14</v>
       </c>
     </row>
     <row r="701" spans="1:18">
@@ -45867,8 +45867,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R701" t="str">
-        <f ca="1" t="shared" si="70"/>
-        <v>2024-08-05</v>
+        <f ca="1" t="shared" si="69"/>
+        <v>2024-09-23</v>
       </c>
     </row>
     <row r="702" spans="1:18">
@@ -45925,8 +45925,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R702" t="str">
-        <f ca="1" t="shared" si="70"/>
-        <v>2023-10-22</v>
+        <f ca="1" t="shared" si="69"/>
+        <v>2024-11-06</v>
       </c>
     </row>
     <row r="703" spans="1:18">
@@ -45983,8 +45983,8 @@
         <v>#NAME?</v>
       </c>
       <c r="R703" t="str">
-        <f ca="1" t="shared" si="70"/>
-        <v>2025-01-18</v>
+        <f ca="1" t="shared" ref="R703:R710" si="70">TEXT(RANDBETWEEN(DATE(2024,8,1),DATE(2025,10,8)),"yyyy-mm-dd")</f>
+        <v>2025-01-26</v>
       </c>
     </row>
     <row r="704" spans="1:18">
@@ -46042,7 +46042,7 @@
       </c>
       <c r="R704" t="str">
         <f ca="1" t="shared" si="70"/>
-        <v>2024-09-07</v>
+        <v>2024-12-04</v>
       </c>
     </row>
     <row r="705" spans="1:18">
@@ -46100,7 +46100,7 @@
       </c>
       <c r="R705" t="str">
         <f ca="1" t="shared" si="70"/>
-        <v>2023-09-05</v>
+        <v>2025-01-08</v>
       </c>
     </row>
     <row r="706" spans="1:18">
@@ -46158,7 +46158,7 @@
       </c>
       <c r="R706" t="str">
         <f ca="1" t="shared" si="70"/>
-        <v>2024-04-26</v>
+        <v>2025-09-07</v>
       </c>
     </row>
     <row r="707" spans="1:18">
@@ -46216,7 +46216,7 @@
       </c>
       <c r="R707" t="str">
         <f ca="1" t="shared" si="70"/>
-        <v>2024-03-28</v>
+        <v>2025-02-22</v>
       </c>
     </row>
     <row r="708" spans="1:18">
@@ -46274,7 +46274,7 @@
       </c>
       <c r="R708" t="str">
         <f ca="1" t="shared" si="70"/>
-        <v>2023-10-02</v>
+        <v>2024-11-19</v>
       </c>
     </row>
     <row r="709" spans="1:18">
@@ -46328,7 +46328,7 @@
       </c>
       <c r="R709" t="str">
         <f ca="1" t="shared" si="70"/>
-        <v>2024-09-21</v>
+        <v>2025-06-06</v>
       </c>
     </row>
     <row r="710" spans="1:18">
@@ -46386,26 +46386,42 @@
       </c>
       <c r="R710" t="str">
         <f ca="1" t="shared" si="70"/>
-        <v>2024-03-23</v>
+        <v>2025-07-07</v>
       </c>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="R1:R710" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="R1:R710">
-      <sortCondition ref="R2:R710"/>
-    </sortState>
-    <extLst>
-      <etc:autoFilterAnalysis etc:version="v1" etc:showPane="0">
-        <etc:analysisCharts>
-          <etc:chart etc:type="pie">
-            <etc:category etc:colId="0"/>
-            <etc:seriesCollections etc:count="1">
-              <etc:series etc:colId="0" etc:subtotal="count"/>
-            </etc:seriesCollections>
-          </etc:chart>
-        </etc:analysisCharts>
-      </etc:autoFilterAnalysis>
-    </extLst>
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2025-09-20"/>
+        <filter val="2025-09-21"/>
+        <filter val="2025-09-22"/>
+        <filter val="2025-09-23"/>
+        <filter val="2025-09-25"/>
+        <filter val="2025-09-26"/>
+        <filter val="2025-09-27"/>
+        <filter val="2025-09-28"/>
+        <filter val="2025-09-29"/>
+        <filter val="2025-09-10"/>
+        <filter val="2025-09-11"/>
+        <filter val="2025-09-12"/>
+        <filter val="2025-09-13"/>
+        <filter val="2025-09-14"/>
+        <filter val="2025-09-15"/>
+        <filter val="2025-09-17"/>
+        <filter val="2025-09-18"/>
+        <filter val="2025-09-19"/>
+        <filter val="2025-09-02"/>
+        <filter val="2025-09-03"/>
+        <filter val="2025-09-04"/>
+        <filter val="2025-09-05"/>
+        <filter val="2025-09-06"/>
+        <filter val="2025-09-07"/>
+        <filter val="2025-09-09"/>
+        <filter val="2025-09-30"/>
+      </filters>
+    </filterColumn>
+    <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
